--- a/Group Resources/Extension Grid 18-19.xlsx
+++ b/Group Resources/Extension Grid 18-19.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="414">
   <si>
     <t>1st</t>
   </si>
@@ -1322,12 +1322,39 @@
   <si>
     <t>Computer</t>
   </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Anna Marie</t>
+  </si>
+  <si>
+    <t>Dusing</t>
+  </si>
+  <si>
+    <t>Shafer</t>
+  </si>
+  <si>
+    <t>Brendel</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,19 +1418,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1453,6 +1469,38 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2156,7 +2204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2174,54 +2222,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2232,40 +2246,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2277,28 +2270,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2316,16 +2303,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2345,13 +2332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2363,128 +2350,35 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2492,6 +2386,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2500,44 +2396,173 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2824,23 +2849,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="170" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="170" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="170" customWidth="1"/>
+    <col min="4" max="4" width="6" style="170" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="170" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="175" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="170" customWidth="1"/>
+    <col min="8" max="8" width="7" style="170" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="170" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2864,72 +2889,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="152" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="152" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="153" t="s">
         <v>6</v>
       </c>
       <c r="S1"/>
       <c r="AC1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="155" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="157"/>
+      <c r="G2" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="93" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="94"/>
-      <c r="P2" s="105"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -2938,54 +2963,54 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" s="93" t="s">
+      <c r="Y2" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="105"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="75"/>
       <c r="AC2"/>
     </row>
     <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="165"/>
-      <c r="M3" s="63">
+      <c r="L3" s="76"/>
+      <c r="M3" s="42">
         <v>304</v>
       </c>
-      <c r="N3" s="166" t="s">
+      <c r="N3" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -2994,56 +3019,56 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3" s="96" t="s">
+      <c r="Y3" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="63">
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="42">
         <v>319</v>
       </c>
       <c r="AC3"/>
     </row>
     <row r="4" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="119"/>
-      <c r="M4" s="48">
+      <c r="L4" s="78"/>
+      <c r="M4" s="29">
         <v>345</v>
       </c>
-      <c r="N4" s="125" t="s">
+      <c r="N4" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="126"/>
-      <c r="P4" s="127"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -3052,568 +3077,568 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="111"/>
-      <c r="AB4" s="48">
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="29">
         <v>321</v>
       </c>
       <c r="AC4"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="155" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="157"/>
+      <c r="G5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="110" t="s">
+      <c r="I5" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="119"/>
-      <c r="M5" s="48">
+      <c r="L5" s="78"/>
+      <c r="M5" s="29">
         <v>333</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="126"/>
-      <c r="P5" s="127"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="81"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5" s="144" t="s">
+      <c r="U5" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="110" t="s">
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="48">
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="29">
         <v>328</v>
       </c>
       <c r="AC5"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="119"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="120"/>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="126"/>
-      <c r="P6" s="127"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="110" t="s">
+      <c r="V6" s="18"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="48">
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="29">
         <v>323</v>
       </c>
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="118" t="s">
+      <c r="I7" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="46">
+      <c r="L7" s="118"/>
+      <c r="M7" s="27">
         <v>332</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="O7" s="126"/>
-      <c r="P7" s="127"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="81"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
-      <c r="U7" s="28" t="s">
+      <c r="U7" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="50">
+      <c r="V7" s="20"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="31">
         <v>327</v>
       </c>
-      <c r="Y7" s="110" t="s">
+      <c r="Y7" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="48">
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="29">
         <v>332</v>
       </c>
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="157"/>
+      <c r="G8" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="98" t="s">
+      <c r="I8" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="99"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="122" t="s">
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="O8" s="123"/>
-      <c r="P8" s="124"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="123"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
-      <c r="U8" s="146" t="s">
+      <c r="U8" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="110" t="s">
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="48">
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="29">
         <v>322</v>
       </c>
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="102"/>
-      <c r="M9" s="46">
+      <c r="L9" s="118"/>
+      <c r="M9" s="27">
         <v>351</v>
       </c>
-      <c r="N9" s="138" t="s">
+      <c r="N9" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="O9" s="139"/>
-      <c r="P9" s="43">
+      <c r="O9" s="135"/>
+      <c r="P9" s="24">
         <v>340</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="U9" s="175" t="s">
+      <c r="U9" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="110" t="s">
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="48">
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="29">
         <v>320</v>
       </c>
       <c r="AC9"/>
     </row>
     <row r="10" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="155" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="157"/>
+      <c r="G10" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="156" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="140" t="s">
+      <c r="L10" s="101"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="141"/>
-      <c r="P10" s="56">
+      <c r="O10" s="137"/>
+      <c r="P10" s="35">
         <v>410</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
-      <c r="U10" s="148" t="s">
+      <c r="U10" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="110" t="s">
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="48">
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="29">
         <v>325</v>
       </c>
       <c r="AC10"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="117" t="s">
+      <c r="K11" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="73">
+      <c r="L11" s="72"/>
+      <c r="M11" s="52">
         <v>336</v>
       </c>
-      <c r="N11" s="133" t="s">
+      <c r="N11" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="134"/>
-      <c r="P11" s="69">
+      <c r="O11" s="130"/>
+      <c r="P11" s="48">
         <v>350</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
-      <c r="U11" s="131" t="s">
+      <c r="U11" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="70">
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="49">
         <v>330</v>
       </c>
-      <c r="Y11" s="110" t="s">
+      <c r="Y11" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="48">
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="29">
         <v>324</v>
       </c>
       <c r="AC11"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="159" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="161"/>
+      <c r="G12" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="160"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="135" t="s">
+      <c r="I12" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12" s="128" t="s">
+      <c r="U12" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="121" t="s">
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="49">
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="30">
         <v>254</v>
       </c>
       <c r="AC12"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="169" t="s">
+      <c r="B13" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="155"/>
-      <c r="P13" s="26"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="14"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
-      <c r="U13" s="142" t="s">
+      <c r="U13" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="V13" s="143"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="71">
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="50">
         <v>146</v>
       </c>
-      <c r="Y13" s="118" t="s">
+      <c r="Y13" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="151"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="119"/>
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="155" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="156" t="s">
         <v>164</v>
       </c>
       <c r="K14" s="2"/>
@@ -3622,629 +3647,629 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="75"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="54"/>
       <c r="T14" s="7"/>
       <c r="AC14"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="155" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="157"/>
+      <c r="G15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="103"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="93" t="s">
+      <c r="L15" s="144"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="163" t="s">
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="164"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="79"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="58"/>
       <c r="AC15"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="155" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14" t="s">
+      <c r="D16" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="157"/>
+      <c r="G16" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="60">
+      <c r="L16" s="14"/>
+      <c r="M16" s="39">
         <v>301</v>
       </c>
-      <c r="N16" s="96" t="s">
+      <c r="N16" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="O16" s="97"/>
-      <c r="P16" s="61" t="s">
+      <c r="O16" s="72"/>
+      <c r="P16" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="62">
+      <c r="Q16" s="41">
         <v>305</v>
       </c>
-      <c r="R16" s="114" t="s">
+      <c r="R16" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="115"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="88">
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="67">
         <v>309</v>
       </c>
-      <c r="AC16" s="23"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="155" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="169" t="s">
+      <c r="B17" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="157"/>
+      <c r="G17" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="15" t="s">
         <v>123</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="25">
         <v>306</v>
       </c>
-      <c r="N17" s="110" t="s">
+      <c r="N17" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="O17" s="111"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="28">
         <v>337</v>
       </c>
-      <c r="R17" s="114" t="s">
+      <c r="R17" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="S17" s="115"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="89">
+      <c r="S17" s="88"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="68">
         <v>350</v>
       </c>
-      <c r="AC17" s="23"/>
+      <c r="AC17" s="11"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="155" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="157"/>
+      <c r="G18" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="15" t="s">
         <v>172</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="25">
         <v>311</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="O18" s="24"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="28">
         <v>307</v>
       </c>
-      <c r="R18" s="114" t="s">
+      <c r="R18" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="S18" s="115"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="89">
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="68">
         <v>338</v>
       </c>
-      <c r="AC18" s="41"/>
+      <c r="AC18" s="23"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="169" t="s">
+      <c r="B19" s="155" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="15" t="s">
         <v>124</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="25">
         <v>302</v>
       </c>
-      <c r="N19" s="108" t="s">
+      <c r="N19" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="109"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="55">
+      <c r="O19" s="149"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="34">
         <v>347</v>
       </c>
-      <c r="R19" s="114" t="s">
+      <c r="R19" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="S19" s="115"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="89">
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="68">
         <v>344</v>
       </c>
       <c r="AC19"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="155" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="15" t="s">
         <v>173</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="45">
+      <c r="M20" s="26">
         <v>303</v>
       </c>
-      <c r="N20" s="93" t="s">
+      <c r="N20" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="114" t="s">
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="S20" s="115"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="89">
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="68">
         <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="169" t="s">
+      <c r="A21" s="155" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="157"/>
+      <c r="G21" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="36" t="s">
         <v>125</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="46">
+      <c r="M21" s="27">
         <v>310</v>
       </c>
-      <c r="N21" s="117" t="s">
+      <c r="N21" s="103" t="s">
         <v>187</v>
       </c>
-      <c r="O21" s="97"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="62">
+      <c r="O21" s="72"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="41">
         <v>335</v>
       </c>
-      <c r="R21" s="90"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="53"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="32"/>
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="155" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="98" t="s">
+      <c r="K22" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="106"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="98" t="s">
+      <c r="L22" s="146"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="84" t="s">
+      <c r="O22" s="150"/>
+      <c r="P22" s="150"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="86"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="65"/>
       <c r="AC22"/>
     </row>
     <row r="23" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="169" t="s">
+      <c r="B23" s="155" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="108" t="s">
+      <c r="K23" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="109"/>
-      <c r="M23" s="54">
+      <c r="L23" s="149"/>
+      <c r="M23" s="33">
         <v>199</v>
       </c>
-      <c r="N23" s="156" t="s">
+      <c r="N23" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="55">
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="34">
         <v>318</v>
       </c>
-      <c r="R23" s="87" t="s">
+      <c r="R23" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="S23" s="87"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="72">
+      <c r="S23" s="66"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="51">
         <v>346</v>
       </c>
       <c r="AC23"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="155" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="93" t="s">
+      <c r="K24" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="121" t="s">
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="47">
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="28">
         <v>355</v>
       </c>
-      <c r="R24" s="76" t="s">
+      <c r="R24" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="S24" s="78"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="79"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="58"/>
       <c r="AC24"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="163"/>
+      <c r="G25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="97" t="s">
+      <c r="K25" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="L25" s="97"/>
-      <c r="M25" s="67">
+      <c r="L25" s="72"/>
+      <c r="M25" s="46">
         <v>334</v>
       </c>
-      <c r="N25" s="160"/>
-      <c r="O25" s="159"/>
-      <c r="P25" s="159"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="77" t="s">
+      <c r="R25" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="66">
+      <c r="S25" s="56"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="45">
         <v>308</v>
       </c>
       <c r="AC25"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="169" t="s">
+      <c r="A26" s="155" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="78"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="57"/>
       <c r="U26" s="7"/>
       <c r="AC26"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="155" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="156" t="s">
         <v>35</v>
       </c>
       <c r="S27"/>
@@ -4260,31 +4285,31 @@
       <c r="AC27"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="155" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="H28" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="156" t="s">
         <v>36</v>
       </c>
       <c r="S28"/>
@@ -4300,31 +4325,31 @@
       <c r="AC28"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="156" t="s">
         <v>37</v>
       </c>
       <c r="S29"/>
@@ -4340,29 +4365,29 @@
       <c r="AC29"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="169" t="s">
+      <c r="A30" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="F30" s="157"/>
+      <c r="G30" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="156" t="s">
         <v>100</v>
       </c>
       <c r="S30"/>
@@ -4378,29 +4403,29 @@
       <c r="AC30"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="169" t="s">
+      <c r="A31" s="155" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="155" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="14" t="s">
+      <c r="F31" s="157"/>
+      <c r="G31" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="156" t="s">
         <v>38</v>
       </c>
       <c r="S31"/>
@@ -4416,31 +4441,31 @@
       <c r="AC31"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="155" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="156" t="s">
         <v>39</v>
       </c>
       <c r="S32"/>
@@ -4456,565 +4481,565 @@
       <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="155" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="171" t="s">
+      <c r="B33" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="20" t="s">
+      <c r="G33" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="156" t="s">
         <v>40</v>
       </c>
       <c r="AC33"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="172" t="s">
+      <c r="A34" s="155" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="173" t="s">
+      <c r="B34" s="155" t="s">
         <v>259</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="19" t="s">
+      <c r="F34" s="157"/>
+      <c r="G34" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="156" t="s">
         <v>41</v>
       </c>
       <c r="AC34"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="169" t="s">
+      <c r="A35" s="155" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="156" t="s">
         <v>42</v>
       </c>
       <c r="AC35"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="169" t="s">
+      <c r="A36" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="14" t="s">
+      <c r="C36" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="156" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="156" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="156" t="s">
         <v>98</v>
       </c>
       <c r="AC36"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="174" t="s">
+      <c r="A37" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="165" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="39" t="s">
+      <c r="C37" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="39" t="s">
+      <c r="F37" s="161"/>
+      <c r="G37" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="160" t="s">
         <v>33</v>
       </c>
       <c r="AC37"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="169" t="s">
+      <c r="A38" s="155" t="s">
         <v>266</v>
       </c>
-      <c r="B38" s="169" t="s">
+      <c r="B38" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="156" t="s">
         <v>43</v>
       </c>
       <c r="AC38"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="155" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="169" t="s">
+      <c r="B39" s="155" t="s">
         <v>269</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="156" t="s">
         <v>71</v>
       </c>
       <c r="AC39"/>
     </row>
     <row r="40" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+      <c r="A40" s="155" t="s">
         <v>270</v>
       </c>
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="162" t="s">
         <v>44</v>
       </c>
       <c r="AC40"/>
     </row>
     <row r="41" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="155" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="157" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="18" t="s">
+      <c r="G41" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="156" t="s">
         <v>89</v>
       </c>
       <c r="AC41"/>
     </row>
     <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="169" t="s">
+      <c r="A42" s="155" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="14" t="s">
+      <c r="F42" s="157"/>
+      <c r="G42" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="156" t="s">
         <v>20</v>
       </c>
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="169" t="s">
+      <c r="B43" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="35" t="s">
+      <c r="I43" s="158" t="s">
         <v>8</v>
       </c>
       <c r="AC43"/>
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="155" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="169" t="s">
+      <c r="B44" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="14" t="s">
+      <c r="F44" s="157"/>
+      <c r="G44" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="156" t="s">
         <v>27</v>
       </c>
       <c r="AC44"/>
     </row>
     <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="155" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="155" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="D45" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="156" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="2"/>
       <c r="AC45"/>
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="169" t="s">
+      <c r="B46" s="155" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="14" t="s">
+      <c r="F46" s="157"/>
+      <c r="G46" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="14" t="s">
+      <c r="H46" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="156" t="s">
         <v>45</v>
       </c>
       <c r="J46" s="2"/>
       <c r="AC46"/>
     </row>
     <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="155" t="s">
         <v>282</v>
       </c>
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="155" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="157">
         <v>247</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="156" t="s">
         <v>148</v>
       </c>
       <c r="J47" s="2"/>
       <c r="AC47"/>
     </row>
     <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="169" t="s">
+      <c r="A48" s="155" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="155" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="14" t="s">
+      <c r="D48" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="14" t="s">
+      <c r="F48" s="157"/>
+      <c r="G48" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="156" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="2"/>
       <c r="AC48"/>
     </row>
     <row r="49" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="155" t="s">
         <v>286</v>
       </c>
-      <c r="B49" s="169" t="s">
+      <c r="B49" s="155" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="15" t="s">
+      <c r="E49" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="156" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="2"/>
       <c r="AC49"/>
     </row>
     <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="169" t="s">
+      <c r="A50" s="155" t="s">
         <v>288</v>
       </c>
-      <c r="B50" s="169" t="s">
+      <c r="B50" s="155" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="14" t="s">
+      <c r="G50" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="I50" s="156" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="2"/>
       <c r="AC50"/>
     </row>
     <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="169" t="s">
+      <c r="A51" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="B51" s="169" t="s">
+      <c r="B51" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="35" t="s">
+      <c r="I51" s="158" t="s">
         <v>8</v>
       </c>
       <c r="AC51" s="3"/>
@@ -5023,31 +5048,31 @@
       <c r="AF51" s="3"/>
     </row>
     <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="169" t="s">
+      <c r="A52" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="B52" s="169" t="s">
+      <c r="B52" s="155" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="I52" s="156" t="s">
         <v>49</v>
       </c>
       <c r="AC52" s="3"/>
@@ -5056,56 +5081,56 @@
       <c r="AF52" s="3"/>
     </row>
     <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="155" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="169" t="s">
+      <c r="B53" s="155" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="6"/>
     </row>
     <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="169" t="s">
+      <c r="A54" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="B54" s="169" t="s">
+      <c r="B54" s="155" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="14" t="s">
+      <c r="F54" s="157"/>
+      <c r="G54" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="156" t="s">
         <v>70</v>
       </c>
       <c r="AE54" s="5"/>
@@ -5113,31 +5138,31 @@
       <c r="AG54" s="6"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="169" t="s">
+      <c r="A55" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="B55" s="169" t="s">
+      <c r="B55" s="155" t="s">
         <v>297</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="15" t="s">
+      <c r="F55" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="14" t="s">
+      <c r="G55" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="156" t="s">
         <v>46</v>
       </c>
       <c r="AE55" s="3"/>
@@ -5145,31 +5170,31 @@
       <c r="AG55" s="3"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="169" t="s">
+      <c r="A56" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="B56" s="169" t="s">
+      <c r="B56" s="155" t="s">
         <v>298</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="14" t="s">
+      <c r="H56" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="156" t="s">
         <v>53</v>
       </c>
       <c r="AE56" s="3"/>
@@ -5177,55 +5202,55 @@
       <c r="AG56" s="3"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="169" t="s">
+      <c r="A57" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="B57" s="169" t="s">
+      <c r="B57" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="14"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="158"/>
+      <c r="I57" s="156"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="169" t="s">
+      <c r="A58" s="155" t="s">
         <v>299</v>
       </c>
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="155" t="s">
         <v>300</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="35" t="s">
+      <c r="I58" s="158" t="s">
         <v>8</v>
       </c>
       <c r="AE58" s="3"/>
@@ -5233,31 +5258,31 @@
       <c r="AG58" s="3"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="169" t="s">
+      <c r="A59" s="155" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="169" t="s">
+      <c r="B59" s="155" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="F59" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="I59" s="14" t="s">
+      <c r="I59" s="156" t="s">
         <v>55</v>
       </c>
       <c r="AE59" s="3"/>
@@ -5265,31 +5290,31 @@
       <c r="AG59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="169" t="s">
+      <c r="A60" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="B60" s="169" t="s">
+      <c r="B60" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="156" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="14" t="s">
+      <c r="G60" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="156" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="156" t="s">
         <v>195</v>
       </c>
       <c r="AE60" s="3"/>
@@ -5297,31 +5322,31 @@
       <c r="AG60" s="3"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="169" t="s">
+      <c r="A61" s="155" t="s">
         <v>305</v>
       </c>
-      <c r="B61" s="169" t="s">
+      <c r="B61" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F61" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="35" t="s">
+      <c r="I61" s="158" t="s">
         <v>8</v>
       </c>
       <c r="AE61" s="3"/>
@@ -5329,31 +5354,31 @@
       <c r="AG61" s="3"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="169" t="s">
+      <c r="A62" s="155" t="s">
         <v>306</v>
       </c>
-      <c r="B62" s="169" t="s">
+      <c r="B62" s="155" t="s">
         <v>307</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="G62" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="14" t="s">
+      <c r="G62" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="14" t="s">
+      <c r="I62" s="156" t="s">
         <v>58</v>
       </c>
       <c r="AE62" s="3"/>
@@ -5361,1474 +5386,1474 @@
       <c r="AG62" s="3"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="169" t="s">
+      <c r="A63" s="155" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="169" t="s">
+      <c r="B63" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="14" t="s">
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="156" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="169" t="s">
+      <c r="A64" s="155" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="169" t="s">
+      <c r="B64" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="14" t="s">
+      <c r="D64" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="15" t="s">
+      <c r="F64" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="156" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="169" t="s">
+      <c r="A65" s="155" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="169" t="s">
+      <c r="B65" s="155" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="15" t="s">
+      <c r="E65" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="156" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="169" t="s">
+      <c r="A66" s="155" t="s">
         <v>313</v>
       </c>
-      <c r="B66" s="169" t="s">
+      <c r="B66" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F66" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="14" t="s">
+      <c r="G66" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="156" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="169" t="s">
+      <c r="A67" s="155" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="169" t="s">
+      <c r="B67" s="155" t="s">
         <v>316</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="15" t="s">
+      <c r="E67" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="156" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="169" t="s">
+      <c r="A68" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="B68" s="169" t="s">
+      <c r="B68" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="15" t="s">
+      <c r="E68" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="156" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="169" t="s">
+      <c r="A69" s="155" t="s">
         <v>318</v>
       </c>
-      <c r="B69" s="169" t="s">
+      <c r="B69" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="E69" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="156" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="169" t="s">
+      <c r="A70" s="155" t="s">
         <v>320</v>
       </c>
-      <c r="B70" s="169" t="s">
+      <c r="B70" s="155" t="s">
         <v>321</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="H70" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="14" t="s">
+      <c r="H70" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="156" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="169" t="s">
+      <c r="A71" s="155" t="s">
         <v>322</v>
       </c>
-      <c r="B71" s="169" t="s">
+      <c r="B71" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="F71" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="14" t="s">
+      <c r="H71" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="156" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="169" t="s">
+      <c r="A72" s="155" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="169" t="s">
+      <c r="B72" s="155" t="s">
         <v>324</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="F72" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="156" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="14" t="s">
+      <c r="H72" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="156" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="169" t="s">
+      <c r="A73" s="155" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="169" t="s">
+      <c r="B73" s="155" t="s">
         <v>326</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14" t="s">
+      <c r="F73" s="157"/>
+      <c r="G73" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="H73" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="14" t="s">
+      <c r="H73" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="156" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="169" t="s">
+      <c r="A74" s="155" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="169" t="s">
+      <c r="B74" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="15" t="s">
+      <c r="E74" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="14" t="s">
+      <c r="I74" s="156" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="169" t="s">
+      <c r="A75" s="155" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="169" t="s">
+      <c r="B75" s="155" t="s">
         <v>329</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="D75" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="156" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="169" t="s">
+      <c r="A76" s="155" t="s">
         <v>330</v>
       </c>
-      <c r="B76" s="169" t="s">
+      <c r="B76" s="155" t="s">
         <v>331</v>
       </c>
-      <c r="C76" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="14" t="s">
+      <c r="F76" s="157"/>
+      <c r="G76" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="156" t="s">
         <v>168</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="I76" s="156" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="169" t="s">
+      <c r="A77" s="155" t="s">
         <v>332</v>
       </c>
-      <c r="B77" s="169" t="s">
+      <c r="B77" s="155" t="s">
         <v>333</v>
       </c>
-      <c r="C77" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="156" t="s">
         <v>191</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="156" t="s">
         <v>191</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="156" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="169" t="s">
+      <c r="A78" s="155" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="169" t="s">
+      <c r="B78" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="14" t="s">
+      <c r="G78" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" s="156" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="169" t="s">
+      <c r="A79" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="169" t="s">
+      <c r="B79" s="155" t="s">
         <v>337</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="35" t="s">
+      <c r="I79" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="169" t="s">
+      <c r="A80" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="B80" s="169" t="s">
+      <c r="B80" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="14" t="s">
+      <c r="G80" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="156" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="169" t="s">
+      <c r="A81" s="155" t="s">
         <v>340</v>
       </c>
-      <c r="B81" s="169" t="s">
+      <c r="B81" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="14" t="s">
+      <c r="H81" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="156" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="169" t="s">
+      <c r="A82" s="155" t="s">
         <v>341</v>
       </c>
-      <c r="B82" s="169" t="s">
+      <c r="B82" s="155" t="s">
         <v>342</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="F82" s="15" t="s">
+      <c r="F82" s="157" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="14" t="s">
+      <c r="G82" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="156" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="169" t="s">
+      <c r="A83" s="155" t="s">
         <v>343</v>
       </c>
-      <c r="B83" s="169" t="s">
+      <c r="B83" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="D83" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="156" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="169" t="s">
+      <c r="A84" s="155" t="s">
         <v>344</v>
       </c>
-      <c r="B84" s="169" t="s">
+      <c r="B84" s="155" t="s">
         <v>345</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F84" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="I84" s="35" t="s">
+      <c r="I84" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="169" t="s">
+      <c r="A85" s="155" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="169" t="s">
+      <c r="B85" s="155" t="s">
         <v>347</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="156" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="I85" s="35" t="s">
+      <c r="I85" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="169" t="s">
+      <c r="A86" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="B86" s="169" t="s">
+      <c r="B86" s="155" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="14" t="s">
+      <c r="D86" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="14" t="s">
+      <c r="F86" s="157"/>
+      <c r="G86" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="I86" s="14" t="s">
+      <c r="I86" s="156" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="172" t="s">
+      <c r="A87" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="B87" s="172" t="s">
+      <c r="B87" s="155" t="s">
         <v>349</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="14" t="s">
+      <c r="D87" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="14" t="s">
+      <c r="F87" s="157"/>
+      <c r="G87" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
+      <c r="H87" s="156"/>
+      <c r="I87" s="156"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="172" t="s">
+      <c r="A88" s="155" t="s">
         <v>350</v>
       </c>
-      <c r="B88" s="172" t="s">
+      <c r="B88" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="14" t="s">
+      <c r="D88" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="I88" s="14" t="s">
+      <c r="I88" s="156" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="169" t="s">
+      <c r="A89" s="155" t="s">
         <v>351</v>
       </c>
-      <c r="B89" s="169" t="s">
+      <c r="B89" s="155" t="s">
         <v>352</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="I89" s="35" t="s">
+      <c r="I89" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="169" t="s">
+      <c r="A90" s="155" t="s">
         <v>353</v>
       </c>
-      <c r="B90" s="169" t="s">
+      <c r="B90" s="155" t="s">
         <v>354</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="156" t="s">
         <v>169</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="H90" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="14" t="s">
+      <c r="H90" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="156" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="169" t="s">
+      <c r="A91" s="155" t="s">
         <v>355</v>
       </c>
-      <c r="B91" s="169" t="s">
+      <c r="B91" s="155" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="18" t="s">
+      <c r="C91" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="I91" s="14" t="s">
+      <c r="I91" s="156" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="169" t="s">
+      <c r="A92" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="B92" s="169" t="s">
+      <c r="B92" s="155" t="s">
         <v>358</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="15"/>
-      <c r="G92" s="14" t="s">
+      <c r="E92" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="157"/>
+      <c r="G92" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="I92" s="156" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="169" t="s">
+      <c r="A93" s="155" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="169" t="s">
+      <c r="B93" s="155" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="H93" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" s="14" t="s">
+      <c r="H93" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="156" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="169" t="s">
+      <c r="A94" s="155" t="s">
         <v>361</v>
       </c>
-      <c r="B94" s="169" t="s">
+      <c r="B94" s="155" t="s">
         <v>362</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14" t="s">
+      <c r="F94" s="157"/>
+      <c r="G94" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="14" t="s">
+      <c r="H94" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="156" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="169" t="s">
+      <c r="A95" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="B95" s="169" t="s">
+      <c r="B95" s="155" t="s">
         <v>364</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="H95" s="14" t="s">
+      <c r="H95" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="I95" s="35" t="s">
+      <c r="I95" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="169" t="s">
+      <c r="A96" s="155" t="s">
         <v>363</v>
       </c>
-      <c r="B96" s="169" t="s">
+      <c r="B96" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="14" t="s">
+      <c r="F96" s="157"/>
+      <c r="G96" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="I96" s="35" t="s">
+      <c r="I96" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="169" t="s">
+      <c r="A97" s="155" t="s">
         <v>365</v>
       </c>
-      <c r="B97" s="169" t="s">
+      <c r="B97" s="155" t="s">
         <v>366</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="F97" s="15" t="s">
+      <c r="F97" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="G97" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="14" t="s">
+      <c r="G97" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="I97" s="14" t="s">
+      <c r="I97" s="156" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="169" t="s">
+      <c r="A98" s="155" t="s">
         <v>367</v>
       </c>
-      <c r="B98" s="169" t="s">
+      <c r="B98" s="155" t="s">
         <v>261</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="H98" s="14" t="s">
+      <c r="H98" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="I98" s="35" t="s">
+      <c r="I98" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="169" t="s">
+      <c r="A99" s="155" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="169" t="s">
+      <c r="B99" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="14" t="s">
+      <c r="F99" s="157"/>
+      <c r="G99" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="I99" s="14" t="s">
+      <c r="I99" s="156" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="169" t="s">
+      <c r="A100" s="155" t="s">
         <v>370</v>
       </c>
-      <c r="B100" s="169" t="s">
+      <c r="B100" s="155" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="F100" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="H100" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="14" t="s">
+      <c r="H100" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="156" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="169" t="s">
+      <c r="A101" s="155" t="s">
         <v>372</v>
       </c>
-      <c r="B101" s="169" t="s">
+      <c r="B101" s="155" t="s">
         <v>373</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="D101" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="14" t="s">
+      <c r="D101" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="F101" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="H101" s="14" t="s">
+      <c r="H101" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="I101" s="14" t="s">
+      <c r="I101" s="156" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="169" t="s">
+      <c r="A102" s="155" t="s">
         <v>372</v>
       </c>
-      <c r="B102" s="169" t="s">
+      <c r="B102" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="156" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="14" t="s">
+      <c r="D102" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="156" t="s">
         <v>192</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="156" t="s">
         <v>191</v>
       </c>
-      <c r="I102" s="14" t="s">
+      <c r="I102" s="156" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="169" t="s">
+      <c r="A103" s="155" t="s">
         <v>374</v>
       </c>
-      <c r="B103" s="169" t="s">
+      <c r="B103" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="C103" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="14" t="s">
+      <c r="C103" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G103" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="I103" s="14" t="s">
+      <c r="I103" s="156" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="169" t="s">
+      <c r="A104" s="155" t="s">
         <v>376</v>
       </c>
-      <c r="B104" s="169" t="s">
+      <c r="B104" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="C104" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="14" t="s">
+      <c r="C104" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="I104" s="156" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="169" t="s">
+      <c r="A105" s="155" t="s">
         <v>378</v>
       </c>
-      <c r="B105" s="169" t="s">
+      <c r="B105" s="155" t="s">
         <v>238</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="G105" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="14" t="s">
+      <c r="G105" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="I105" s="14" t="s">
+      <c r="I105" s="156" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="169" t="s">
+      <c r="A106" s="155" t="s">
         <v>379</v>
       </c>
-      <c r="B106" s="169" t="s">
+      <c r="B106" s="155" t="s">
         <v>380</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="14" t="s">
+      <c r="D106" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G106" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="I106" s="14" t="s">
+      <c r="I106" s="156" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="169" t="s">
+      <c r="A107" s="155" t="s">
         <v>381</v>
       </c>
-      <c r="B107" s="169" t="s">
+      <c r="B107" s="155" t="s">
         <v>371</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="14" t="s">
+      <c r="F107" s="157"/>
+      <c r="G107" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="I107" s="35" t="s">
+      <c r="I107" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="169" t="s">
+      <c r="A108" s="155" t="s">
         <v>382</v>
       </c>
-      <c r="B108" s="169" t="s">
+      <c r="B108" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="14" t="s">
+      <c r="H108" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="156" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="169" t="s">
+      <c r="A109" s="155" t="s">
         <v>382</v>
       </c>
-      <c r="B109" s="169" t="s">
+      <c r="B109" s="155" t="s">
         <v>383</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="I109" s="35" t="s">
+      <c r="I109" s="158" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="169" t="s">
+      <c r="A110" s="155" t="s">
         <v>384</v>
       </c>
-      <c r="B110" s="169" t="s">
+      <c r="B110" s="155" t="s">
         <v>385</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14" t="s">
+      <c r="C110" s="156"/>
+      <c r="D110" s="156"/>
+      <c r="E110" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="H110" s="14" t="s">
+      <c r="H110" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="I110" s="14"/>
+      <c r="I110" s="156"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="169" t="s">
+      <c r="A111" s="155" t="s">
         <v>386</v>
       </c>
-      <c r="B111" s="169" t="s">
+      <c r="B111" s="155" t="s">
         <v>348</v>
       </c>
-      <c r="C111" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="14" t="s">
+      <c r="C111" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="F111" s="157" t="s">
         <v>96</v>
       </c>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="14" t="s">
+      <c r="H111" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="I111" s="14" t="s">
+      <c r="I111" s="156" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="169" t="s">
+      <c r="A112" s="155" t="s">
         <v>387</v>
       </c>
-      <c r="B112" s="169" t="s">
+      <c r="B112" s="155" t="s">
         <v>388</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="D112" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="14" t="s">
+      <c r="D112" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="14" t="s">
+      <c r="I112" s="156" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="169" t="s">
+      <c r="A113" s="155" t="s">
         <v>389</v>
       </c>
-      <c r="B113" s="169" t="s">
+      <c r="B113" s="155" t="s">
         <v>390</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="E113" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="15" t="s">
+      <c r="E113" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="157" t="s">
         <v>170</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="H113" s="14" t="s">
+      <c r="H113" s="156" t="s">
         <v>170</v>
       </c>
-      <c r="I113" s="14" t="s">
+      <c r="I113" s="156" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="179" t="s">
+      <c r="A114" s="174" t="s">
         <v>391</v>
       </c>
-      <c r="B114" s="180" t="s">
+      <c r="B114" s="174" t="s">
         <v>392</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="156">
         <v>326</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="156">
         <v>326</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="156">
         <v>326</v>
       </c>
-      <c r="F114" s="14">
+      <c r="F114" s="156">
         <v>326</v>
       </c>
-      <c r="G114" s="14">
+      <c r="G114" s="156">
         <v>326</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="156">
         <v>326</v>
       </c>
-      <c r="I114" s="14">
+      <c r="I114" s="156">
         <v>326</v>
       </c>
       <c r="N114"/>
@@ -6840,31 +6865,31 @@
       <c r="T114"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="181" t="s">
+      <c r="A115" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="B115" s="182" t="s">
+      <c r="B115" s="155" t="s">
         <v>394</v>
       </c>
-      <c r="C115" s="14">
+      <c r="C115" s="156">
         <v>326</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="156">
         <v>326</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="156">
         <v>326</v>
       </c>
-      <c r="F115" s="14">
+      <c r="F115" s="156">
         <v>326</v>
       </c>
-      <c r="G115" s="14">
+      <c r="G115" s="156">
         <v>326</v>
       </c>
-      <c r="H115" s="14">
+      <c r="H115" s="156">
         <v>326</v>
       </c>
-      <c r="I115" s="14">
+      <c r="I115" s="156">
         <v>326</v>
       </c>
       <c r="N115"/>
@@ -6876,31 +6901,31 @@
       <c r="T115"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="183" t="s">
+      <c r="A116" s="174" t="s">
         <v>395</v>
       </c>
-      <c r="B116" s="184" t="s">
+      <c r="B116" s="174" t="s">
         <v>396</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="156">
         <v>342</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="156">
         <v>342</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="156">
         <v>342</v>
       </c>
-      <c r="F116" s="14">
+      <c r="F116" s="156">
         <v>342</v>
       </c>
-      <c r="G116" s="14">
+      <c r="G116" s="156">
         <v>342</v>
       </c>
-      <c r="H116" s="14">
+      <c r="H116" s="156">
         <v>342</v>
       </c>
-      <c r="I116" s="14">
+      <c r="I116" s="156">
         <v>342</v>
       </c>
       <c r="N116"/>
@@ -6912,31 +6937,31 @@
       <c r="T116"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="183" t="s">
+      <c r="A117" s="174" t="s">
         <v>397</v>
       </c>
-      <c r="B117" s="184" t="s">
+      <c r="B117" s="174" t="s">
         <v>398</v>
       </c>
-      <c r="C117" s="14">
+      <c r="C117" s="156">
         <v>342</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="156">
         <v>342</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="156">
         <v>342</v>
       </c>
-      <c r="F117" s="14">
+      <c r="F117" s="156">
         <v>342</v>
       </c>
-      <c r="G117" s="14">
+      <c r="G117" s="156">
         <v>342</v>
       </c>
-      <c r="H117" s="14">
+      <c r="H117" s="156">
         <v>342</v>
       </c>
-      <c r="I117" s="14">
+      <c r="I117" s="156">
         <v>342</v>
       </c>
       <c r="N117"/>
@@ -6948,119 +6973,293 @@
       <c r="T117"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="186" t="s">
+      <c r="A118" s="167" t="s">
         <v>401</v>
       </c>
-      <c r="B118" s="185" t="s">
+      <c r="B118" s="168" t="s">
         <v>402</v>
       </c>
-      <c r="C118" s="14">
+      <c r="C118" s="156">
         <v>312</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="156">
         <v>312</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="156">
         <v>312</v>
       </c>
-      <c r="F118" s="14">
+      <c r="F118" s="156">
         <v>312</v>
       </c>
-      <c r="G118" s="14">
+      <c r="G118" s="156">
         <v>312</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="156">
         <v>312</v>
       </c>
-      <c r="I118" s="14">
+      <c r="I118" s="156">
         <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="185" t="s">
+      <c r="A119" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="B119" s="185" t="s">
+      <c r="B119" s="168" t="s">
         <v>404</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="160">
         <v>112</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="160">
         <v>112</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E119" s="160">
         <v>112</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="160">
         <v>112</v>
       </c>
-      <c r="G119" s="39">
+      <c r="G119" s="160">
         <v>112</v>
       </c>
-      <c r="H119" s="39">
+      <c r="H119" s="160">
         <v>112</v>
       </c>
-      <c r="I119" s="39">
+      <c r="I119" s="160">
         <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="185" t="s">
+      <c r="A120" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="B120" s="185" t="s">
+      <c r="B120" s="168" t="s">
         <v>404</v>
       </c>
-      <c r="C120" s="39">
+      <c r="C120" s="160">
         <v>122</v>
       </c>
-      <c r="D120" s="39">
+      <c r="D120" s="160">
         <v>122</v>
       </c>
-      <c r="E120" s="39">
+      <c r="E120" s="160">
         <v>122</v>
       </c>
-      <c r="F120" s="39">
+      <c r="F120" s="160">
         <v>122</v>
       </c>
-      <c r="G120" s="39">
+      <c r="G120" s="160">
         <v>122</v>
       </c>
-      <c r="H120" s="39">
+      <c r="H120" s="160">
         <v>122</v>
       </c>
-      <c r="I120" s="39">
+      <c r="I120" s="160">
         <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="185" t="s">
+      <c r="A121" s="168" t="s">
         <v>403</v>
       </c>
-      <c r="B121" s="185" t="s">
+      <c r="B121" s="168" t="s">
         <v>404</v>
       </c>
-      <c r="C121" s="39">
+      <c r="C121" s="160">
         <v>210</v>
       </c>
-      <c r="D121" s="39">
+      <c r="D121" s="160">
         <v>210</v>
       </c>
-      <c r="E121" s="39">
+      <c r="E121" s="160">
         <v>210</v>
       </c>
-      <c r="F121" s="39">
+      <c r="F121" s="160">
         <v>210</v>
       </c>
-      <c r="G121" s="39">
+      <c r="G121" s="160">
         <v>210</v>
       </c>
-      <c r="H121" s="39">
+      <c r="H121" s="160">
         <v>210</v>
       </c>
-      <c r="I121" s="39">
+      <c r="I121" s="160">
         <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="B122" s="170" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" s="169">
+        <v>301</v>
+      </c>
+      <c r="D122" s="169">
+        <v>301</v>
+      </c>
+      <c r="E122" s="169">
+        <v>301</v>
+      </c>
+      <c r="F122" s="169">
+        <v>301</v>
+      </c>
+      <c r="G122" s="169">
+        <v>301</v>
+      </c>
+      <c r="H122" s="169">
+        <v>301</v>
+      </c>
+      <c r="I122" s="169">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="172" t="s">
+        <v>412</v>
+      </c>
+      <c r="B123" s="169" t="s">
+        <v>406</v>
+      </c>
+      <c r="C123" s="169">
+        <v>306</v>
+      </c>
+      <c r="D123" s="169">
+        <v>306</v>
+      </c>
+      <c r="E123" s="169">
+        <v>306</v>
+      </c>
+      <c r="F123" s="169">
+        <v>306</v>
+      </c>
+      <c r="G123" s="169">
+        <v>306</v>
+      </c>
+      <c r="H123" s="169">
+        <v>306</v>
+      </c>
+      <c r="I123" s="169">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="172" t="s">
+        <v>411</v>
+      </c>
+      <c r="B124" s="169" t="s">
+        <v>405</v>
+      </c>
+      <c r="C124" s="169">
+        <v>311</v>
+      </c>
+      <c r="D124" s="169">
+        <v>311</v>
+      </c>
+      <c r="E124" s="169">
+        <v>311</v>
+      </c>
+      <c r="F124" s="169">
+        <v>311</v>
+      </c>
+      <c r="G124" s="169">
+        <v>311</v>
+      </c>
+      <c r="H124" s="169">
+        <v>311</v>
+      </c>
+      <c r="I124" s="169">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" s="169" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="169">
+        <v>302</v>
+      </c>
+      <c r="D125" s="169">
+        <v>302</v>
+      </c>
+      <c r="E125" s="169">
+        <v>302</v>
+      </c>
+      <c r="F125" s="169">
+        <v>302</v>
+      </c>
+      <c r="G125" s="169">
+        <v>302</v>
+      </c>
+      <c r="H125" s="169">
+        <v>302</v>
+      </c>
+      <c r="I125" s="169">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="172" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" s="170" t="s">
+        <v>408</v>
+      </c>
+      <c r="C126" s="171">
+        <v>303</v>
+      </c>
+      <c r="D126" s="171">
+        <v>303</v>
+      </c>
+      <c r="E126" s="171">
+        <v>303</v>
+      </c>
+      <c r="F126" s="171">
+        <v>303</v>
+      </c>
+      <c r="G126" s="171">
+        <v>303</v>
+      </c>
+      <c r="H126" s="171">
+        <v>303</v>
+      </c>
+      <c r="I126" s="171">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="173" t="s">
+        <v>396</v>
+      </c>
+      <c r="B127" s="170" t="s">
+        <v>409</v>
+      </c>
+      <c r="C127" s="171">
+        <v>310</v>
+      </c>
+      <c r="D127" s="171">
+        <v>310</v>
+      </c>
+      <c r="E127" s="171">
+        <v>310</v>
+      </c>
+      <c r="F127" s="171">
+        <v>310</v>
+      </c>
+      <c r="G127" s="171">
+        <v>310</v>
+      </c>
+      <c r="H127" s="171">
+        <v>310</v>
+      </c>
+      <c r="I127" s="171">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -7068,56 +7267,7 @@
     <sortCondition ref="A1:A126"/>
   </sortState>
   <mergeCells count="66">
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R20:T20"/>
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="N16:O16"/>
@@ -7131,9 +7281,58 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y2:AB2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.15" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" fitToWidth="7" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Group Resources/Extension Grid 18-19.xlsx
+++ b/Group Resources/Extension Grid 18-19.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayton.ward\Documents\GitHub\ryle-app\Group Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ryle-app\Group Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4692C0C0-7358-4E2C-93AF-B6C9B97D142C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ward, Jayton T</author>
   </authors>
   <commentList>
-    <comment ref="U7" authorId="0" shapeId="0">
+    <comment ref="U7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C114" authorId="0" shapeId="0">
+    <comment ref="C114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1354,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1403,11 +1404,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -1502,8 +1498,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1546,6 +1549,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -2201,10 +2209,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2214,28 +2223,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2245,20 +2244,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2270,52 +2263,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2328,17 +2310,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2348,223 +2330,266 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="45" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="41" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="41" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="36" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2848,28 +2873,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+    <sheetView tabSelected="1" topLeftCell="T7" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="170" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="170" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="170" customWidth="1"/>
-    <col min="4" max="4" width="6" style="170" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="170" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="175" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="170" customWidth="1"/>
-    <col min="8" max="8" width="7" style="170" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="170" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="76" customWidth="1"/>
+    <col min="4" max="4" width="6" style="76" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="76" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="81" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="76" customWidth="1"/>
+    <col min="8" max="8" width="7" style="76" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="76" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2889,72 +2914,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="153" t="s">
+      <c r="H1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="153" t="s">
+      <c r="I1" s="59" t="s">
         <v>6</v>
       </c>
       <c r="S1"/>
       <c r="AC1"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="157"/>
-      <c r="G2" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="156" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="156" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="73" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="75"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="95"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
@@ -2963,54 +2988,54 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" s="73" t="s">
+      <c r="Y2" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="75"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="95"/>
       <c r="AC2"/>
     </row>
     <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="157" t="s">
+      <c r="E3" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="156" t="s">
+      <c r="G3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="42">
+      <c r="L3" s="156"/>
+      <c r="M3" s="30">
         <v>304</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
@@ -3019,56 +3044,56 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3" s="71" t="s">
+      <c r="Y3" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="42">
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="30">
         <v>319</v>
       </c>
       <c r="AC3"/>
     </row>
     <row r="4" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="156" t="s">
+      <c r="D4" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="156" t="s">
+      <c r="I4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="29">
+      <c r="L4" s="142"/>
+      <c r="M4" s="21">
         <v>345</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="145"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
@@ -3077,54 +3102,54 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="29">
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="21">
         <v>321</v>
       </c>
       <c r="AC4"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="157"/>
-      <c r="G5" s="156" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="77" t="s">
+      <c r="I5" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="29">
+      <c r="L5" s="142"/>
+      <c r="M5" s="21">
         <v>333</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="80"/>
-      <c r="P5" s="81"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="145"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
@@ -3135,172 +3160,172 @@
       <c r="V5" s="107"/>
       <c r="W5" s="107"/>
       <c r="X5" s="107"/>
-      <c r="Y5" s="77" t="s">
+      <c r="Y5" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="29">
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="21">
         <v>328</v>
       </c>
       <c r="AC5"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="157" t="s">
+      <c r="E6" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="156" t="s">
+      <c r="G6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="156" t="s">
+      <c r="H6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="156" t="s">
+      <c r="I6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="79" t="s">
+      <c r="L6" s="142"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="81"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="145"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="77" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="29">
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="21">
         <v>323</v>
       </c>
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="156" t="s">
+      <c r="H7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="158" t="s">
+      <c r="I7" s="64" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="118"/>
-      <c r="M7" s="27">
+      <c r="L7" s="94"/>
+      <c r="M7" s="19">
         <v>332</v>
       </c>
-      <c r="N7" s="79" t="s">
+      <c r="N7" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="81"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="145"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="31">
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="23">
         <v>327</v>
       </c>
-      <c r="Y7" s="77" t="s">
+      <c r="Y7" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="29">
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="21">
         <v>332</v>
       </c>
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="157"/>
-      <c r="G8" s="156" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="156" t="s">
+      <c r="H8" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="140" t="s">
+      <c r="I8" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="141"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="121" t="s">
+      <c r="L8" s="91"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="151" t="s">
         <v>186</v>
       </c>
-      <c r="O8" s="122"/>
-      <c r="P8" s="123"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="153"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
@@ -3311,56 +3336,56 @@
       <c r="V8" s="109"/>
       <c r="W8" s="109"/>
       <c r="X8" s="110"/>
-      <c r="Y8" s="77" t="s">
+      <c r="Y8" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="29">
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="21">
         <v>322</v>
       </c>
       <c r="AC8"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="156" t="s">
+      <c r="D9" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="157" t="s">
+      <c r="F9" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="156" t="s">
+      <c r="H9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="143" t="s">
+      <c r="K9" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="27">
+      <c r="L9" s="94"/>
+      <c r="M9" s="19">
         <v>351</v>
       </c>
-      <c r="N9" s="134" t="s">
+      <c r="N9" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="O9" s="135"/>
-      <c r="P9" s="24">
+      <c r="O9" s="155"/>
+      <c r="P9" s="18">
         <v>340</v>
       </c>
       <c r="Q9"/>
@@ -3373,52 +3398,52 @@
       <c r="V9" s="115"/>
       <c r="W9" s="115"/>
       <c r="X9" s="116"/>
-      <c r="Y9" s="77" t="s">
+      <c r="Y9" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="29">
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="21">
         <v>320</v>
       </c>
       <c r="AC9"/>
     </row>
     <row r="10" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="157"/>
-      <c r="G10" s="156" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="156" t="s">
+      <c r="H10" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="156" t="s">
+      <c r="I10" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="136" t="s">
+      <c r="L10" s="130"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="137"/>
-      <c r="P10" s="35">
+      <c r="O10" s="139"/>
+      <c r="P10" s="27">
         <v>410</v>
       </c>
       <c r="Q10"/>
@@ -3431,168 +3456,168 @@
       <c r="V10" s="112"/>
       <c r="W10" s="112"/>
       <c r="X10" s="113"/>
-      <c r="Y10" s="77" t="s">
+      <c r="Y10" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="29">
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="21">
         <v>325</v>
       </c>
       <c r="AC10"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="156" t="s">
+      <c r="D11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="157" t="s">
+      <c r="E11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="156" t="s">
+      <c r="G11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="156" t="s">
+      <c r="H11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="156" t="s">
+      <c r="I11" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="103" t="s">
+      <c r="K11" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="52">
+      <c r="L11" s="89"/>
+      <c r="M11" s="39">
         <v>336</v>
       </c>
-      <c r="N11" s="129" t="s">
+      <c r="N11" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="O11" s="130"/>
-      <c r="P11" s="48">
+      <c r="O11" s="134"/>
+      <c r="P11" s="35">
         <v>350</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
-      <c r="U11" s="127" t="s">
+      <c r="U11" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="49">
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="36">
         <v>330</v>
       </c>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="29">
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="21">
         <v>324</v>
       </c>
       <c r="AC11"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="161"/>
-      <c r="G12" s="160" t="s">
+      <c r="F12" s="67"/>
+      <c r="G12" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="160" t="s">
+      <c r="H12" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="131" t="s">
+      <c r="I12" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="129"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12" s="124" t="s">
+      <c r="U12" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="97" t="s">
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="30">
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="22">
         <v>254</v>
       </c>
       <c r="AC12"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="156" t="s">
+      <c r="C13" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="157" t="s">
+      <c r="F13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="156" t="s">
+      <c r="G13" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="156" t="s">
+      <c r="H13" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="156" t="s">
+      <c r="I13" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="147"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="14"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="9"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
@@ -3602,43 +3627,43 @@
       </c>
       <c r="V13" s="105"/>
       <c r="W13" s="105"/>
-      <c r="X13" s="50">
+      <c r="X13" s="37">
         <v>146</v>
       </c>
       <c r="Y13" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="119"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="118"/>
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="156" t="s">
+      <c r="C14" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="156" t="s">
+      <c r="D14" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="157" t="s">
+      <c r="E14" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="156" t="s">
+      <c r="G14" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="H14" s="156" t="s">
+      <c r="H14" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="156" t="s">
+      <c r="I14" s="62" t="s">
         <v>164</v>
       </c>
       <c r="K14" s="2"/>
@@ -3647,629 +3672,629 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="54"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="41"/>
       <c r="T14" s="7"/>
       <c r="AC14"/>
     </row>
     <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="155" t="s">
+      <c r="B15" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="156" t="s">
+      <c r="D15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="156" t="s">
+      <c r="E15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="157"/>
-      <c r="G15" s="156" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="156" t="s">
+      <c r="H15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="156" t="s">
+      <c r="I15" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="144"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="73" t="s">
+      <c r="L15" s="161"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="85" t="s">
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="86"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="58"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="45"/>
       <c r="AC15"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C16" s="156" t="s">
+      <c r="C16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="157"/>
-      <c r="G16" s="156" t="s">
+      <c r="D16" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="156" t="s">
+      <c r="H16" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="156" t="s">
+      <c r="I16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="39">
+      <c r="L16" s="164"/>
+      <c r="M16" s="165">
         <v>301</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="40" t="s">
+      <c r="O16" s="175"/>
+      <c r="P16" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="177">
         <v>305</v>
       </c>
-      <c r="R16" s="87" t="s">
+      <c r="R16" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="67">
+      <c r="S16" s="83"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="54">
         <v>309</v>
       </c>
-      <c r="AC16" s="11"/>
+      <c r="AC16" s="8"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="156" t="s">
+      <c r="E17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="156" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="156" t="s">
+      <c r="H17" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="166" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="168">
         <v>306</v>
       </c>
-      <c r="N17" s="77" t="s">
+      <c r="N17" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="O17" s="98"/>
-      <c r="P17" s="8" t="s">
+      <c r="O17" s="179"/>
+      <c r="P17" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="180">
         <v>337</v>
       </c>
-      <c r="R17" s="87" t="s">
+      <c r="R17" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="S17" s="88"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="68">
+      <c r="S17" s="83"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="55">
         <v>350</v>
       </c>
-      <c r="AC17" s="11"/>
+      <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="156" t="s">
+      <c r="D18" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="157"/>
-      <c r="G18" s="156" t="s">
+      <c r="F18" s="63"/>
+      <c r="G18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="156" t="s">
+      <c r="H18" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="156" t="s">
+      <c r="I18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="168">
         <v>311</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="166" t="s">
         <v>145</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="8" t="s">
+      <c r="O18" s="169"/>
+      <c r="P18" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="180">
         <v>307</v>
       </c>
-      <c r="R18" s="87" t="s">
+      <c r="R18" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="68">
+      <c r="S18" s="83"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="55">
         <v>338</v>
       </c>
-      <c r="AC18" s="23"/>
+      <c r="AC18" s="17"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="156" t="s">
+      <c r="C19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="156" t="s">
+      <c r="D19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="156" t="s">
+      <c r="E19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="157" t="s">
+      <c r="F19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="156" t="s">
+      <c r="G19" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="156" t="s">
+      <c r="I19" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="166" t="s">
         <v>124</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="168">
         <v>302</v>
       </c>
-      <c r="N19" s="148" t="s">
+      <c r="N19" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="O19" s="149"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="34">
+      <c r="O19" s="182"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="184">
         <v>347</v>
       </c>
-      <c r="R19" s="87" t="s">
+      <c r="R19" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="68">
+      <c r="S19" s="83"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="55">
         <v>344</v>
       </c>
       <c r="AC19"/>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="156" t="s">
+      <c r="E20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="157" t="s">
+      <c r="F20" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="156" t="s">
+      <c r="G20" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="156" t="s">
+      <c r="I20" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="26">
+      <c r="L20" s="169"/>
+      <c r="M20" s="168">
         <v>303</v>
       </c>
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="87" t="s">
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="68">
+      <c r="S20" s="83"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="55">
         <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="C21" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="156" t="s">
+      <c r="C21" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="156" t="s">
+      <c r="E21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="157"/>
-      <c r="G21" s="156" t="s">
+      <c r="F21" s="63"/>
+      <c r="G21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="156" t="s">
+      <c r="H21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="156" t="s">
+      <c r="I21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="27">
+      <c r="L21" s="171"/>
+      <c r="M21" s="172">
         <v>310</v>
       </c>
-      <c r="N21" s="103" t="s">
+      <c r="N21" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="O21" s="72"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="41">
+      <c r="O21" s="89"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="29">
         <v>335</v>
       </c>
-      <c r="R21" s="69"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="32"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="24"/>
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="156" t="s">
+      <c r="C22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="156" t="s">
+      <c r="E22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="157" t="s">
+      <c r="F22" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="156" t="s">
+      <c r="G22" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="156" t="s">
+      <c r="I22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="140" t="s">
+      <c r="K22" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="146"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="140" t="s">
+      <c r="L22" s="96"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="150"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="63" t="s">
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
+      <c r="R22" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="S22" s="64"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="65"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="52"/>
       <c r="AC22"/>
     </row>
     <row r="23" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="156" t="s">
+      <c r="E23" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="157" t="s">
+      <c r="F23" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="156" t="s">
+      <c r="G23" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="156" t="s">
+      <c r="H23" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="156" t="s">
+      <c r="I23" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="148" t="s">
+      <c r="K23" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="L23" s="149"/>
-      <c r="M23" s="33">
+      <c r="L23" s="99"/>
+      <c r="M23" s="25">
         <v>199</v>
       </c>
-      <c r="N23" s="94" t="s">
+      <c r="N23" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="34">
+      <c r="O23" s="126"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="26">
         <v>318</v>
       </c>
-      <c r="R23" s="66" t="s">
+      <c r="R23" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="S23" s="66"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="51">
+      <c r="S23" s="53"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="38">
         <v>346</v>
       </c>
       <c r="AC23"/>
     </row>
     <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="156" t="s">
+      <c r="E24" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="157" t="s">
+      <c r="F24" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="156" t="s">
+      <c r="G24" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="H24" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="156" t="s">
+      <c r="H24" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="73" t="s">
+      <c r="K24" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="97" t="s">
+      <c r="L24" s="87"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="119" t="s">
         <v>184</v>
       </c>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="28">
+      <c r="O24" s="101"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="20">
         <v>355</v>
       </c>
-      <c r="R24" s="55" t="s">
+      <c r="R24" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="S24" s="57"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="58"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="45"/>
       <c r="AC24"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="162" t="s">
+      <c r="D25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="162" t="s">
+      <c r="E25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="163"/>
-      <c r="G25" s="162" t="s">
+      <c r="F25" s="69"/>
+      <c r="G25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="162" t="s">
+      <c r="H25" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="L25" s="72"/>
-      <c r="M25" s="46">
+      <c r="L25" s="89"/>
+      <c r="M25" s="33">
         <v>334</v>
       </c>
-      <c r="N25" s="100"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="56" t="s">
+      <c r="R25" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="45">
+      <c r="S25" s="43"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="32">
         <v>308</v>
       </c>
       <c r="AC25"/>
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="156" t="s">
+      <c r="C26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="156" t="s">
+      <c r="E26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="157" t="s">
+      <c r="F26" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="138"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="57"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="44"/>
       <c r="U26" s="7"/>
       <c r="AC26"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="155" t="s">
+      <c r="A27" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="156" t="s">
+      <c r="C27" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="157" t="s">
+      <c r="F27" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="156" t="s">
+      <c r="G27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="156" t="s">
+      <c r="H27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="156" t="s">
+      <c r="I27" s="62" t="s">
         <v>35</v>
       </c>
       <c r="S27"/>
@@ -4285,31 +4310,31 @@
       <c r="AC27"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="156" t="s">
+      <c r="D28" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="156" t="s">
+      <c r="E28" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="157" t="s">
+      <c r="F28" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="156" t="s">
+      <c r="G28" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="156" t="s">
+      <c r="H28" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="62" t="s">
         <v>36</v>
       </c>
       <c r="S28"/>
@@ -4325,31 +4350,31 @@
       <c r="AC28"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="156" t="s">
+      <c r="D29" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="156" t="s">
+      <c r="E29" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="157" t="s">
+      <c r="F29" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="156" t="s">
+      <c r="G29" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="156" t="s">
+      <c r="H29" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="62" t="s">
         <v>37</v>
       </c>
       <c r="S29"/>
@@ -4365,29 +4390,29 @@
       <c r="AC29"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="155" t="s">
+      <c r="A30" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="156" t="s">
+      <c r="C30" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="156" t="s">
+      <c r="E30" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="157"/>
-      <c r="G30" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="156" t="s">
+      <c r="F30" s="63"/>
+      <c r="G30" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="156" t="s">
+      <c r="I30" s="62" t="s">
         <v>100</v>
       </c>
       <c r="S30"/>
@@ -4403,29 +4428,29 @@
       <c r="AC30"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="155" t="s">
+      <c r="A31" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="156" t="s">
+      <c r="C31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="156" t="s">
+      <c r="E31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="157"/>
-      <c r="G31" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="156" t="s">
+      <c r="F31" s="63"/>
+      <c r="G31" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="156" t="s">
+      <c r="I31" s="62" t="s">
         <v>38</v>
       </c>
       <c r="S31"/>
@@ -4441,31 +4466,31 @@
       <c r="AC31"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="155" t="s">
+      <c r="A32" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="157" t="s">
+      <c r="F32" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="156" t="s">
+      <c r="G32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="156" t="s">
+      <c r="H32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="156" t="s">
+      <c r="I32" s="62" t="s">
         <v>39</v>
       </c>
       <c r="S32"/>
@@ -4481,565 +4506,565 @@
       <c r="AC32"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="156" t="s">
+      <c r="C33" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="156" t="s">
+      <c r="D33" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="156" t="s">
+      <c r="E33" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="157" t="s">
+      <c r="F33" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="156" t="s">
+      <c r="G33" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="156" t="s">
+      <c r="I33" s="62" t="s">
         <v>40</v>
       </c>
       <c r="AC33"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="155" t="s">
+      <c r="A34" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="C34" s="156" t="s">
+      <c r="C34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="156" t="s">
+      <c r="D34" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="157"/>
-      <c r="G34" s="156" t="s">
+      <c r="F34" s="63"/>
+      <c r="G34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="156" t="s">
+      <c r="H34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="156" t="s">
+      <c r="I34" s="62" t="s">
         <v>41</v>
       </c>
       <c r="AC34"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="155" t="s">
+      <c r="A35" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="156" t="s">
+      <c r="C35" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="156" t="s">
+      <c r="D35" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="156" t="s">
+      <c r="E35" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="157" t="s">
+      <c r="F35" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="156" t="s">
+      <c r="G35" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="156" t="s">
+      <c r="H35" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="62" t="s">
         <v>42</v>
       </c>
       <c r="AC35"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="156" t="s">
+      <c r="C36" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="156" t="s">
+      <c r="E36" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="F36" s="157" t="s">
+      <c r="F36" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="G36" s="156" t="s">
+      <c r="G36" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="156" t="s">
+      <c r="H36" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="156" t="s">
+      <c r="I36" s="62" t="s">
         <v>98</v>
       </c>
       <c r="AC36"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="165" t="s">
+      <c r="A37" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="160" t="s">
+      <c r="C37" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="160" t="s">
+      <c r="E37" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="161"/>
-      <c r="G37" s="160" t="s">
+      <c r="F37" s="67"/>
+      <c r="G37" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H37" s="160" t="s">
+      <c r="H37" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="160" t="s">
+      <c r="I37" s="66" t="s">
         <v>33</v>
       </c>
       <c r="AC37"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B38" s="155" t="s">
+      <c r="B38" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="156" t="s">
+      <c r="C38" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="156" t="s">
+      <c r="D38" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="156" t="s">
+      <c r="E38" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="157" t="s">
+      <c r="F38" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="156" t="s">
+      <c r="G38" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="156" t="s">
+      <c r="I38" s="62" t="s">
         <v>43</v>
       </c>
       <c r="AC38"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C39" s="156" t="s">
+      <c r="C39" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="156" t="s">
+      <c r="D39" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="157" t="s">
+      <c r="E39" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="156" t="s">
+      <c r="G39" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="156" t="s">
+      <c r="H39" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="156" t="s">
+      <c r="I39" s="62" t="s">
         <v>71</v>
       </c>
       <c r="AC39"/>
     </row>
     <row r="40" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="155" t="s">
+      <c r="A40" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="162" t="s">
+      <c r="C40" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="162" t="s">
+      <c r="E40" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="163" t="s">
+      <c r="F40" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="162" t="s">
+      <c r="G40" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="162" t="s">
+      <c r="H40" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="162" t="s">
+      <c r="I40" s="68" t="s">
         <v>44</v>
       </c>
       <c r="AC40"/>
     </row>
     <row r="41" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="155" t="s">
+      <c r="A41" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="C41" s="156" t="s">
+      <c r="C41" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="156" t="s">
+      <c r="D41" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="156" t="s">
+      <c r="E41" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="157" t="s">
+      <c r="F41" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="156" t="s">
+      <c r="G41" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="I41" s="156" t="s">
+      <c r="I41" s="62" t="s">
         <v>89</v>
       </c>
       <c r="AC41"/>
     </row>
     <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="C42" s="156" t="s">
+      <c r="C42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="156" t="s">
+      <c r="D42" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="156" t="s">
+      <c r="E42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="157"/>
-      <c r="G42" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="156" t="s">
+      <c r="F42" s="63"/>
+      <c r="G42" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="156" t="s">
+      <c r="I42" s="62" t="s">
         <v>20</v>
       </c>
       <c r="AC42"/>
     </row>
     <row r="43" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="156" t="s">
+      <c r="C43" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="156" t="s">
+      <c r="D43" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="156" t="s">
+      <c r="E43" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="157" t="s">
+      <c r="F43" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="156" t="s">
+      <c r="G43" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="H43" s="156" t="s">
+      <c r="H43" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="158" t="s">
+      <c r="I43" s="64" t="s">
         <v>8</v>
       </c>
       <c r="AC43"/>
     </row>
     <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C44" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="156" t="s">
+      <c r="C44" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="156" t="s">
+      <c r="E44" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="157"/>
-      <c r="G44" s="156" t="s">
+      <c r="F44" s="63"/>
+      <c r="G44" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="156" t="s">
+      <c r="H44" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="156" t="s">
+      <c r="I44" s="62" t="s">
         <v>27</v>
       </c>
       <c r="AC44"/>
     </row>
     <row r="45" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="156" t="s">
+      <c r="C45" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="156" t="s">
+      <c r="D45" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="157" t="s">
+      <c r="F45" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="156" t="s">
+      <c r="G45" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="156" t="s">
+      <c r="H45" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="156" t="s">
+      <c r="I45" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="2"/>
       <c r="AC45"/>
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="C46" s="156" t="s">
+      <c r="C46" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="156" t="s">
+      <c r="D46" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="156" t="s">
+      <c r="E46" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="157"/>
-      <c r="G46" s="156" t="s">
+      <c r="F46" s="63"/>
+      <c r="G46" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="156" t="s">
+      <c r="H46" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="62" t="s">
         <v>45</v>
       </c>
       <c r="J46" s="2"/>
       <c r="AC46"/>
     </row>
     <row r="47" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B47" s="155" t="s">
+      <c r="B47" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="156" t="s">
+      <c r="C47" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="156" t="s">
+      <c r="E47" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="157">
+      <c r="F47" s="63">
         <v>247</v>
       </c>
-      <c r="G47" s="156" t="s">
+      <c r="G47" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="H47" s="156" t="s">
+      <c r="H47" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="156" t="s">
+      <c r="I47" s="62" t="s">
         <v>148</v>
       </c>
       <c r="J47" s="2"/>
       <c r="AC47"/>
     </row>
     <row r="48" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="155" t="s">
+      <c r="A48" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="156" t="s">
+      <c r="C48" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="156" t="s">
+      <c r="D48" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="157"/>
-      <c r="G48" s="156" t="s">
+      <c r="F48" s="63"/>
+      <c r="G48" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="156" t="s">
+      <c r="H48" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="156" t="s">
+      <c r="I48" s="62" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="2"/>
       <c r="AC48"/>
     </row>
     <row r="49" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="156" t="s">
+      <c r="C49" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="156" t="s">
+      <c r="D49" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="157" t="s">
+      <c r="E49" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="156" t="s">
+      <c r="G49" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="156" t="s">
+      <c r="H49" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="156" t="s">
+      <c r="I49" s="62" t="s">
         <v>47</v>
       </c>
       <c r="J49" s="2"/>
       <c r="AC49"/>
     </row>
     <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="155" t="s">
+      <c r="A50" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="156" t="s">
+      <c r="C50" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="156" t="s">
+      <c r="D50" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="156" t="s">
+      <c r="E50" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="157" t="s">
+      <c r="F50" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="156" t="s">
+      <c r="G50" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="156" t="s">
+      <c r="I50" s="62" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="2"/>
       <c r="AC50"/>
     </row>
     <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="155" t="s">
+      <c r="A51" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="156" t="s">
+      <c r="C51" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="156" t="s">
+      <c r="D51" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="156" t="s">
+      <c r="E51" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="157" t="s">
+      <c r="F51" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="156" t="s">
+      <c r="G51" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="156" t="s">
+      <c r="H51" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="158" t="s">
+      <c r="I51" s="64" t="s">
         <v>8</v>
       </c>
       <c r="AC51" s="3"/>
@@ -5048,31 +5073,31 @@
       <c r="AF51" s="3"/>
     </row>
     <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="156" t="s">
+      <c r="C52" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="156" t="s">
+      <c r="D52" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="157" t="s">
+      <c r="F52" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="156" t="s">
+      <c r="G52" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="156" t="s">
+      <c r="H52" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="156" t="s">
+      <c r="I52" s="62" t="s">
         <v>49</v>
       </c>
       <c r="AC52" s="3"/>
@@ -5081,56 +5106,56 @@
       <c r="AF52" s="3"/>
     </row>
     <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="156" t="s">
+      <c r="D53" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="156" t="s">
+      <c r="E53" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="157" t="s">
+      <c r="F53" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="6"/>
     </row>
     <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="155" t="s">
+      <c r="A54" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B54" s="155" t="s">
+      <c r="B54" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="156" t="s">
+      <c r="C54" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="156" t="s">
+      <c r="D54" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="156" t="s">
+      <c r="E54" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="156" t="s">
+      <c r="F54" s="63"/>
+      <c r="G54" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="156" t="s">
+      <c r="I54" s="62" t="s">
         <v>70</v>
       </c>
       <c r="AE54" s="5"/>
@@ -5138,31 +5163,31 @@
       <c r="AG54" s="6"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="155" t="s">
+      <c r="A55" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B55" s="155" t="s">
+      <c r="B55" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="C55" s="156" t="s">
+      <c r="C55" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="156" t="s">
+      <c r="D55" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="156" t="s">
+      <c r="E55" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="157" t="s">
+      <c r="F55" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="156" t="s">
+      <c r="G55" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I55" s="156" t="s">
+      <c r="I55" s="62" t="s">
         <v>46</v>
       </c>
       <c r="AE55" s="3"/>
@@ -5170,31 +5195,31 @@
       <c r="AG55" s="3"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B56" s="155" t="s">
+      <c r="B56" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="C56" s="156" t="s">
+      <c r="C56" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="156" t="s">
+      <c r="D56" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="156" t="s">
+      <c r="E56" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="157" t="s">
+      <c r="F56" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="156" t="s">
+      <c r="G56" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="156" t="s">
+      <c r="H56" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="62" t="s">
         <v>53</v>
       </c>
       <c r="AE56" s="3"/>
@@ -5202,55 +5227,55 @@
       <c r="AG56" s="3"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C57" s="156" t="s">
+      <c r="C57" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="156" t="s">
+      <c r="D57" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="156" t="s">
+      <c r="E57" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="F57" s="157"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="156"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="62"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="155" t="s">
+      <c r="A58" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B58" s="155" t="s">
+      <c r="B58" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="C58" s="156" t="s">
+      <c r="C58" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="156" t="s">
+      <c r="D58" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="156" t="s">
+      <c r="E58" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F58" s="157" t="s">
+      <c r="F58" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="156" t="s">
+      <c r="G58" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="156" t="s">
+      <c r="H58" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="I58" s="158" t="s">
+      <c r="I58" s="64" t="s">
         <v>8</v>
       </c>
       <c r="AE58" s="3"/>
@@ -5258,31 +5283,31 @@
       <c r="AG58" s="3"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="155" t="s">
+      <c r="B59" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="156" t="s">
+      <c r="C59" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="156" t="s">
+      <c r="E59" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="157" t="s">
+      <c r="F59" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G59" s="156" t="s">
+      <c r="G59" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="156" t="s">
+      <c r="H59" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I59" s="156" t="s">
+      <c r="I59" s="62" t="s">
         <v>55</v>
       </c>
       <c r="AE59" s="3"/>
@@ -5290,31 +5315,31 @@
       <c r="AG59" s="3"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="155" t="s">
+      <c r="A60" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="B60" s="155" t="s">
+      <c r="B60" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="C60" s="156" t="s">
+      <c r="C60" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="156" t="s">
+      <c r="D60" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="156" t="s">
+      <c r="E60" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F60" s="157" t="s">
+      <c r="F60" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G60" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="156" t="s">
+      <c r="G60" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="156" t="s">
+      <c r="I60" s="62" t="s">
         <v>195</v>
       </c>
       <c r="AE60" s="3"/>
@@ -5322,31 +5347,31 @@
       <c r="AG60" s="3"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="156" t="s">
+      <c r="C61" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="156" t="s">
+      <c r="D61" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="156" t="s">
+      <c r="E61" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="157" t="s">
+      <c r="F61" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="156" t="s">
+      <c r="G61" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="156" t="s">
+      <c r="H61" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="I61" s="158" t="s">
+      <c r="I61" s="64" t="s">
         <v>8</v>
       </c>
       <c r="AE61" s="3"/>
@@ -5354,31 +5379,31 @@
       <c r="AG61" s="3"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="155" t="s">
+      <c r="A62" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B62" s="155" t="s">
+      <c r="B62" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="C62" s="156" t="s">
+      <c r="C62" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="156" t="s">
+      <c r="D62" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="156" t="s">
+      <c r="E62" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F62" s="157" t="s">
+      <c r="F62" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="G62" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="156" t="s">
+      <c r="G62" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="156" t="s">
+      <c r="I62" s="62" t="s">
         <v>58</v>
       </c>
       <c r="AE62" s="3"/>
@@ -5386,1474 +5411,1474 @@
       <c r="AG62" s="3"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="155" t="s">
+      <c r="B63" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="156" t="s">
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="156" t="s">
+      <c r="H63" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="156" t="s">
+      <c r="I63" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" s="155" t="s">
+      <c r="A64" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B64" s="155" t="s">
+      <c r="B64" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C64" s="156" t="s">
+      <c r="C64" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="156" t="s">
+      <c r="D64" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="157" t="s">
+      <c r="F64" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="156" t="s">
+      <c r="G64" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="156" t="s">
+      <c r="H64" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="156" t="s">
+      <c r="I64" s="62" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="155" t="s">
+      <c r="B65" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="156" t="s">
+      <c r="C65" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="156" t="s">
+      <c r="D65" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="157" t="s">
+      <c r="E65" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="156" t="s">
+      <c r="G65" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H65" s="156" t="s">
+      <c r="H65" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="156" t="s">
+      <c r="I65" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="155" t="s">
+      <c r="A66" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="C66" s="156" t="s">
+      <c r="C66" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="156" t="s">
+      <c r="D66" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="156" t="s">
+      <c r="E66" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="157" t="s">
+      <c r="F66" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="156" t="s">
+      <c r="G66" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="I66" s="156" t="s">
+      <c r="I66" s="62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="155" t="s">
+      <c r="A67" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="155" t="s">
+      <c r="B67" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="C67" s="156" t="s">
+      <c r="C67" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="156" t="s">
+      <c r="D67" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E67" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="157" t="s">
+      <c r="E67" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="156" t="s">
+      <c r="G67" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="156" t="s">
+      <c r="H67" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="I67" s="156" t="s">
+      <c r="I67" s="62" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="155" t="s">
+      <c r="A68" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="156" t="s">
+      <c r="C68" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="156" t="s">
+      <c r="D68" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="157" t="s">
+      <c r="E68" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="156" t="s">
+      <c r="G68" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="H68" s="156" t="s">
+      <c r="H68" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="I68" s="156" t="s">
+      <c r="I68" s="62" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="C69" s="156" t="s">
+      <c r="C69" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="156" t="s">
+      <c r="D69" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="157" t="s">
+      <c r="E69" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="G69" s="156" t="s">
+      <c r="G69" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="156" t="s">
+      <c r="H69" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="I69" s="156" t="s">
+      <c r="I69" s="62" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="B70" s="155" t="s">
+      <c r="B70" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="C70" s="156" t="s">
+      <c r="C70" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="156" t="s">
+      <c r="D70" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="156" t="s">
+      <c r="E70" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="157" t="s">
+      <c r="F70" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="156" t="s">
+      <c r="G70" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="H70" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="156" t="s">
+      <c r="H70" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="B71" s="155" t="s">
+      <c r="B71" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="C71" s="156" t="s">
+      <c r="C71" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="156" t="s">
+      <c r="D71" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="156" t="s">
+      <c r="E71" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="157" t="s">
+      <c r="F71" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G71" s="156" t="s">
+      <c r="G71" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="H71" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="156" t="s">
+      <c r="H71" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="62" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="155" t="s">
+      <c r="A72" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="C72" s="156" t="s">
+      <c r="C72" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="156" t="s">
+      <c r="D72" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="156" t="s">
+      <c r="E72" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="157" t="s">
+      <c r="F72" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="G72" s="156" t="s">
+      <c r="G72" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="156" t="s">
+      <c r="H72" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="62" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="155" t="s">
+      <c r="A73" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="B73" s="155" t="s">
+      <c r="B73" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="C73" s="156" t="s">
+      <c r="C73" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="156" t="s">
+      <c r="D73" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="156" t="s">
+      <c r="E73" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="157"/>
-      <c r="G73" s="156" t="s">
+      <c r="F73" s="63"/>
+      <c r="G73" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="H73" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="156" t="s">
+      <c r="H73" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="62" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="155" t="s">
+      <c r="A74" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="155" t="s">
+      <c r="B74" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="156" t="s">
+      <c r="C74" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="156" t="s">
+      <c r="D74" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="157" t="s">
+      <c r="E74" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G74" s="156" t="s">
+      <c r="G74" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H74" s="156" t="s">
+      <c r="H74" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="156" t="s">
+      <c r="I74" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="155" t="s">
+      <c r="A75" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="155" t="s">
+      <c r="B75" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C75" s="156" t="s">
+      <c r="C75" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="156" t="s">
+      <c r="D75" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="157" t="s">
+      <c r="F75" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="156" t="s">
+      <c r="G75" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="156" t="s">
+      <c r="H75" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="156" t="s">
+      <c r="I75" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="155" t="s">
+      <c r="A76" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="B76" s="155" t="s">
+      <c r="B76" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="C76" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="156" t="s">
+      <c r="C76" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="156" t="s">
+      <c r="E76" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="157"/>
-      <c r="G76" s="156" t="s">
+      <c r="F76" s="63"/>
+      <c r="G76" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="156" t="s">
+      <c r="H76" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="I76" s="156" t="s">
+      <c r="I76" s="62" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="155" t="s">
+      <c r="A77" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="B77" s="155" t="s">
+      <c r="B77" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="C77" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="156" t="s">
+      <c r="C77" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E77" s="156" t="s">
+      <c r="E77" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="F77" s="157" t="s">
+      <c r="F77" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="156" t="s">
+      <c r="G77" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="H77" s="156" t="s">
+      <c r="H77" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="I77" s="156" t="s">
+      <c r="I77" s="62" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="155" t="s">
+      <c r="A78" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="155" t="s">
+      <c r="B78" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="C78" s="156" t="s">
+      <c r="C78" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="156" t="s">
+      <c r="D78" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="156" t="s">
+      <c r="E78" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="157" t="s">
+      <c r="F78" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="156" t="s">
+      <c r="G78" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="I78" s="156" t="s">
+      <c r="I78" s="62" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="155" t="s">
+      <c r="A79" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="155" t="s">
+      <c r="B79" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="C79" s="156" t="s">
+      <c r="C79" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="156" t="s">
+      <c r="D79" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="156" t="s">
+      <c r="E79" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F79" s="157" t="s">
+      <c r="F79" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="156" t="s">
+      <c r="G79" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="156" t="s">
+      <c r="H79" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I79" s="158" t="s">
+      <c r="I79" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="155" t="s">
+      <c r="A80" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="B80" s="155" t="s">
+      <c r="B80" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="C80" s="156" t="s">
+      <c r="C80" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="156" t="s">
+      <c r="D80" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="156" t="s">
+      <c r="E80" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F80" s="157" t="s">
+      <c r="F80" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="G80" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="156" t="s">
+      <c r="G80" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I80" s="156" t="s">
+      <c r="I80" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="155" t="s">
+      <c r="A81" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="B81" s="155" t="s">
+      <c r="B81" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C81" s="156" t="s">
+      <c r="C81" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="156" t="s">
+      <c r="D81" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E81" s="156" t="s">
+      <c r="E81" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F81" s="157" t="s">
+      <c r="F81" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="G81" s="156" t="s">
+      <c r="G81" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="156" t="s">
+      <c r="H81" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="62" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="B82" s="155" t="s">
+      <c r="B82" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="C82" s="156" t="s">
+      <c r="C82" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D82" s="156" t="s">
+      <c r="D82" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="156" t="s">
+      <c r="E82" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F82" s="157" t="s">
+      <c r="F82" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="156" t="s">
+      <c r="G82" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="I82" s="156" t="s">
+      <c r="I82" s="62" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="155" t="s">
+      <c r="A83" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="B83" s="155" t="s">
+      <c r="B83" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="156" t="s">
+      <c r="C83" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="156" t="s">
+      <c r="D83" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="F83" s="157" t="s">
+      <c r="F83" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G83" s="156" t="s">
+      <c r="G83" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H83" s="156" t="s">
+      <c r="H83" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="I83" s="156" t="s">
+      <c r="I83" s="62" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="155" t="s">
+      <c r="A84" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="B84" s="155" t="s">
+      <c r="B84" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="C84" s="156" t="s">
+      <c r="C84" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="156" t="s">
+      <c r="D84" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="156" t="s">
+      <c r="E84" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="157" t="s">
+      <c r="F84" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="156" t="s">
+      <c r="G84" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="H84" s="156" t="s">
+      <c r="H84" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="I84" s="158" t="s">
+      <c r="I84" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="155" t="s">
+      <c r="B85" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="C85" s="156" t="s">
+      <c r="C85" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="156" t="s">
+      <c r="D85" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="156" t="s">
+      <c r="E85" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="157" t="s">
+      <c r="F85" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G85" s="156" t="s">
+      <c r="G85" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="156" t="s">
+      <c r="H85" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="I85" s="158" t="s">
+      <c r="I85" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="155" t="s">
+      <c r="A86" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="B86" s="155" t="s">
+      <c r="B86" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C86" s="156" t="s">
+      <c r="C86" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="156" t="s">
+      <c r="D86" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="157"/>
-      <c r="G86" s="156" t="s">
+      <c r="F86" s="63"/>
+      <c r="G86" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="H86" s="156" t="s">
+      <c r="H86" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="I86" s="156" t="s">
+      <c r="I86" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="B87" s="155" t="s">
+      <c r="B87" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="C87" s="156" t="s">
+      <c r="C87" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="156" t="s">
+      <c r="D87" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="157"/>
-      <c r="G87" s="156" t="s">
+      <c r="F87" s="63"/>
+      <c r="G87" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="H87" s="156"/>
-      <c r="I87" s="156"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="155" t="s">
+      <c r="A88" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="B88" s="155" t="s">
+      <c r="B88" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="156" t="s">
+      <c r="C88" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="156" t="s">
+      <c r="D88" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="157" t="s">
+      <c r="F88" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G88" s="156" t="s">
+      <c r="G88" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="H88" s="156" t="s">
+      <c r="H88" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I88" s="156" t="s">
+      <c r="I88" s="62" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="155" t="s">
+      <c r="A89" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="B89" s="155" t="s">
+      <c r="B89" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="C89" s="156" t="s">
+      <c r="C89" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="156" t="s">
+      <c r="D89" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="156" t="s">
+      <c r="E89" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="157" t="s">
+      <c r="F89" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="156" t="s">
+      <c r="G89" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="H89" s="156" t="s">
+      <c r="H89" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="I89" s="158" t="s">
+      <c r="I89" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="155" t="s">
+      <c r="A90" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="B90" s="155" t="s">
+      <c r="B90" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="C90" s="156" t="s">
+      <c r="C90" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="156" t="s">
+      <c r="D90" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E90" s="156" t="s">
+      <c r="E90" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="F90" s="157" t="s">
+      <c r="F90" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="G90" s="156" t="s">
+      <c r="G90" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H90" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I90" s="156" t="s">
+      <c r="H90" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="62" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="155" t="s">
+      <c r="A91" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="B91" s="155" t="s">
+      <c r="B91" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="156" t="s">
+      <c r="C91" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="156" t="s">
+      <c r="E91" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="F91" s="157" t="s">
+      <c r="F91" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="156" t="s">
+      <c r="G91" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="H91" s="156" t="s">
+      <c r="H91" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="I91" s="156" t="s">
+      <c r="I91" s="62" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="155" t="s">
+      <c r="A92" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="B92" s="155" t="s">
+      <c r="B92" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="C92" s="156" t="s">
+      <c r="C92" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="156" t="s">
+      <c r="D92" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="157"/>
-      <c r="G92" s="156" t="s">
+      <c r="E92" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="63"/>
+      <c r="G92" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H92" s="156" t="s">
+      <c r="H92" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="156" t="s">
+      <c r="I92" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="155" t="s">
+      <c r="A93" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="B93" s="155" t="s">
+      <c r="B93" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="156" t="s">
+      <c r="C93" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="156" t="s">
+      <c r="D93" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E93" s="156" t="s">
+      <c r="E93" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="157" t="s">
+      <c r="F93" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="G93" s="156" t="s">
+      <c r="G93" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="H93" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" s="156" t="s">
+      <c r="H93" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="62" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="B94" s="155" t="s">
+      <c r="B94" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="C94" s="156" t="s">
+      <c r="C94" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="156" t="s">
+      <c r="D94" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E94" s="156" t="s">
+      <c r="E94" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="F94" s="157"/>
-      <c r="G94" s="156" t="s">
+      <c r="F94" s="63"/>
+      <c r="G94" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="H94" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="156" t="s">
+      <c r="H94" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="62" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="155" t="s">
+      <c r="A95" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="B95" s="155" t="s">
+      <c r="B95" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="C95" s="156" t="s">
+      <c r="C95" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="156" t="s">
+      <c r="D95" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="156" t="s">
+      <c r="E95" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="157" t="s">
+      <c r="F95" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="G95" s="156" t="s">
+      <c r="G95" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="H95" s="156" t="s">
+      <c r="H95" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="I95" s="158" t="s">
+      <c r="I95" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="155" t="s">
+      <c r="A96" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="B96" s="155" t="s">
+      <c r="B96" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="156" t="s">
+      <c r="C96" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D96" s="156" t="s">
+      <c r="D96" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E96" s="156" t="s">
+      <c r="E96" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="157"/>
-      <c r="G96" s="156" t="s">
+      <c r="F96" s="63"/>
+      <c r="G96" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H96" s="156" t="s">
+      <c r="H96" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I96" s="158" t="s">
+      <c r="I96" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="155" t="s">
+      <c r="A97" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="B97" s="155" t="s">
+      <c r="B97" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C97" s="156" t="s">
+      <c r="C97" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D97" s="156" t="s">
+      <c r="D97" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="156" t="s">
+      <c r="E97" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="F97" s="157" t="s">
+      <c r="F97" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G97" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="156" t="s">
+      <c r="G97" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I97" s="156" t="s">
+      <c r="I97" s="62" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="155" t="s">
+      <c r="A98" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="B98" s="155" t="s">
+      <c r="B98" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C98" s="156" t="s">
+      <c r="C98" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="D98" s="156" t="s">
+      <c r="D98" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E98" s="156" t="s">
+      <c r="E98" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="157" t="s">
+      <c r="F98" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="G98" s="156" t="s">
+      <c r="G98" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="H98" s="156" t="s">
+      <c r="H98" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I98" s="158" t="s">
+      <c r="I98" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="155" t="s">
+      <c r="A99" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="155" t="s">
+      <c r="B99" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="156" t="s">
+      <c r="C99" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D99" s="156" t="s">
+      <c r="D99" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="156" t="s">
+      <c r="E99" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="F99" s="157"/>
-      <c r="G99" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="156" t="s">
+      <c r="F99" s="63"/>
+      <c r="G99" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="I99" s="156" t="s">
+      <c r="I99" s="62" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="155" t="s">
+      <c r="A100" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="B100" s="155" t="s">
+      <c r="B100" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="156" t="s">
+      <c r="C100" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D100" s="156" t="s">
+      <c r="D100" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E100" s="156" t="s">
+      <c r="E100" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="157" t="s">
+      <c r="F100" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G100" s="156" t="s">
+      <c r="G100" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H100" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="156" t="s">
+      <c r="H100" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="62" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="155" t="s">
+      <c r="A101" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="B101" s="155" t="s">
+      <c r="B101" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="C101" s="156" t="s">
+      <c r="C101" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D101" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="156" t="s">
+      <c r="D101" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="157" t="s">
+      <c r="F101" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="156" t="s">
+      <c r="G101" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="H101" s="156" t="s">
+      <c r="H101" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="I101" s="156" t="s">
+      <c r="I101" s="62" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="155" t="s">
+      <c r="A102" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="C102" s="156" t="s">
+      <c r="C102" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="156" t="s">
+      <c r="D102" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="F102" s="157" t="s">
+      <c r="F102" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G102" s="156" t="s">
+      <c r="G102" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H102" s="156" t="s">
+      <c r="H102" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="I102" s="156" t="s">
+      <c r="I102" s="62" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="155" t="s">
+      <c r="A103" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="C103" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="156" t="s">
+      <c r="C103" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E103" s="156" t="s">
+      <c r="E103" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F103" s="157" t="s">
+      <c r="F103" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="G103" s="156" t="s">
+      <c r="G103" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="H103" s="156" t="s">
+      <c r="H103" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="I103" s="156" t="s">
+      <c r="I103" s="62" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="155" t="s">
+      <c r="A104" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="B104" s="155" t="s">
+      <c r="B104" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="C104" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="156" t="s">
+      <c r="C104" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E104" s="156" t="s">
+      <c r="E104" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F104" s="157" t="s">
+      <c r="F104" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G104" s="156" t="s">
+      <c r="G104" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="H104" s="156" t="s">
+      <c r="H104" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="I104" s="156" t="s">
+      <c r="I104" s="62" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="155" t="s">
+      <c r="A105" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="B105" s="155" t="s">
+      <c r="B105" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="C105" s="156" t="s">
+      <c r="C105" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="156" t="s">
+      <c r="D105" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="156" t="s">
+      <c r="E105" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F105" s="157" t="s">
+      <c r="F105" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G105" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="156" t="s">
+      <c r="G105" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="I105" s="156" t="s">
+      <c r="I105" s="62" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="155" t="s">
+      <c r="A106" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="B106" s="155" t="s">
+      <c r="B106" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="C106" s="156" t="s">
+      <c r="C106" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="156" t="s">
+      <c r="D106" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="F106" s="157" t="s">
+      <c r="F106" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="G106" s="156" t="s">
+      <c r="G106" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="H106" s="156" t="s">
+      <c r="H106" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="I106" s="156" t="s">
+      <c r="I106" s="62" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="155" t="s">
+      <c r="A107" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="B107" s="155" t="s">
+      <c r="B107" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="C107" s="156" t="s">
+      <c r="C107" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D107" s="156" t="s">
+      <c r="D107" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E107" s="156" t="s">
+      <c r="E107" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="F107" s="157"/>
-      <c r="G107" s="156" t="s">
+      <c r="F107" s="63"/>
+      <c r="G107" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="156" t="s">
+      <c r="H107" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="I107" s="158" t="s">
+      <c r="I107" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="155" t="s">
+      <c r="A108" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B108" s="155" t="s">
+      <c r="B108" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="156" t="s">
+      <c r="C108" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D108" s="156" t="s">
+      <c r="D108" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="156" t="s">
+      <c r="E108" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F108" s="157" t="s">
+      <c r="F108" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G108" s="156" t="s">
+      <c r="G108" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="I108" s="156" t="s">
+      <c r="H108" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="62" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="155" t="s">
+      <c r="A109" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="B109" s="155" t="s">
+      <c r="B109" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="C109" s="156" t="s">
+      <c r="C109" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="156" t="s">
+      <c r="D109" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="E109" s="156" t="s">
+      <c r="E109" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="F109" s="157" t="s">
+      <c r="F109" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="G109" s="156" t="s">
+      <c r="G109" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="156" t="s">
+      <c r="H109" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="I109" s="158" t="s">
+      <c r="I109" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="155" t="s">
+      <c r="A110" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="B110" s="155" t="s">
+      <c r="B110" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="C110" s="156"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="156" t="s">
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="F110" s="157" t="s">
+      <c r="F110" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G110" s="156" t="s">
+      <c r="G110" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H110" s="156" t="s">
+      <c r="H110" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I110" s="156"/>
+      <c r="I110" s="62"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="155" t="s">
+      <c r="A111" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="B111" s="155" t="s">
+      <c r="B111" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="C111" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="156" t="s">
+      <c r="C111" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E111" s="156" t="s">
+      <c r="E111" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F111" s="157" t="s">
+      <c r="F111" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G111" s="156" t="s">
+      <c r="G111" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="H111" s="156" t="s">
+      <c r="H111" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I111" s="156" t="s">
+      <c r="I111" s="62" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="155" t="s">
+      <c r="A112" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="B112" s="155" t="s">
+      <c r="B112" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="C112" s="156" t="s">
+      <c r="C112" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D112" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="156" t="s">
+      <c r="D112" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="157" t="s">
+      <c r="F112" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G112" s="156" t="s">
+      <c r="G112" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="H112" s="156" t="s">
+      <c r="H112" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="I112" s="156" t="s">
+      <c r="I112" s="62" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="155" t="s">
+      <c r="A113" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="B113" s="155" t="s">
+      <c r="B113" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="C113" s="156" t="s">
+      <c r="C113" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="D113" s="156" t="s">
+      <c r="D113" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="E113" s="158" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="157" t="s">
+      <c r="E113" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="G113" s="156" t="s">
+      <c r="G113" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="H113" s="156" t="s">
+      <c r="H113" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="I113" s="156" t="s">
+      <c r="I113" s="62" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="174" t="s">
+      <c r="A114" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="B114" s="174" t="s">
+      <c r="B114" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="C114" s="156">
+      <c r="C114" s="62">
         <v>326</v>
       </c>
-      <c r="D114" s="156">
+      <c r="D114" s="62">
         <v>326</v>
       </c>
-      <c r="E114" s="156">
+      <c r="E114" s="62">
         <v>326</v>
       </c>
-      <c r="F114" s="156">
+      <c r="F114" s="62">
         <v>326</v>
       </c>
-      <c r="G114" s="156">
+      <c r="G114" s="62">
         <v>326</v>
       </c>
-      <c r="H114" s="156">
+      <c r="H114" s="62">
         <v>326</v>
       </c>
-      <c r="I114" s="156">
+      <c r="I114" s="62">
         <v>326</v>
       </c>
       <c r="N114"/>
@@ -6865,31 +6890,31 @@
       <c r="T114"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="155" t="s">
+      <c r="A115" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="B115" s="155" t="s">
+      <c r="B115" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="C115" s="156">
+      <c r="C115" s="62">
         <v>326</v>
       </c>
-      <c r="D115" s="156">
+      <c r="D115" s="62">
         <v>326</v>
       </c>
-      <c r="E115" s="156">
+      <c r="E115" s="62">
         <v>326</v>
       </c>
-      <c r="F115" s="156">
+      <c r="F115" s="62">
         <v>326</v>
       </c>
-      <c r="G115" s="156">
+      <c r="G115" s="62">
         <v>326</v>
       </c>
-      <c r="H115" s="156">
+      <c r="H115" s="62">
         <v>326</v>
       </c>
-      <c r="I115" s="156">
+      <c r="I115" s="62">
         <v>326</v>
       </c>
       <c r="N115"/>
@@ -6901,31 +6926,31 @@
       <c r="T115"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="174" t="s">
+      <c r="A116" s="80" t="s">
         <v>395</v>
       </c>
-      <c r="B116" s="174" t="s">
+      <c r="B116" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="C116" s="156">
+      <c r="C116" s="62">
         <v>342</v>
       </c>
-      <c r="D116" s="156">
+      <c r="D116" s="62">
         <v>342</v>
       </c>
-      <c r="E116" s="156">
+      <c r="E116" s="62">
         <v>342</v>
       </c>
-      <c r="F116" s="156">
+      <c r="F116" s="62">
         <v>342</v>
       </c>
-      <c r="G116" s="156">
+      <c r="G116" s="62">
         <v>342</v>
       </c>
-      <c r="H116" s="156">
+      <c r="H116" s="62">
         <v>342</v>
       </c>
-      <c r="I116" s="156">
+      <c r="I116" s="62">
         <v>342</v>
       </c>
       <c r="N116"/>
@@ -6937,31 +6962,31 @@
       <c r="T116"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="174" t="s">
+      <c r="A117" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="B117" s="174" t="s">
+      <c r="B117" s="80" t="s">
         <v>398</v>
       </c>
-      <c r="C117" s="156">
+      <c r="C117" s="62">
         <v>342</v>
       </c>
-      <c r="D117" s="156">
+      <c r="D117" s="62">
         <v>342</v>
       </c>
-      <c r="E117" s="156">
+      <c r="E117" s="62">
         <v>342</v>
       </c>
-      <c r="F117" s="156">
+      <c r="F117" s="62">
         <v>342</v>
       </c>
-      <c r="G117" s="156">
+      <c r="G117" s="62">
         <v>342</v>
       </c>
-      <c r="H117" s="156">
+      <c r="H117" s="62">
         <v>342</v>
       </c>
-      <c r="I117" s="156">
+      <c r="I117" s="62">
         <v>342</v>
       </c>
       <c r="N117"/>
@@ -6973,292 +6998,292 @@
       <c r="T117"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="167" t="s">
+      <c r="A118" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="B118" s="168" t="s">
+      <c r="B118" s="74" t="s">
         <v>402</v>
       </c>
-      <c r="C118" s="156">
+      <c r="C118" s="62">
         <v>312</v>
       </c>
-      <c r="D118" s="156">
+      <c r="D118" s="62">
         <v>312</v>
       </c>
-      <c r="E118" s="156">
+      <c r="E118" s="62">
         <v>312</v>
       </c>
-      <c r="F118" s="156">
+      <c r="F118" s="62">
         <v>312</v>
       </c>
-      <c r="G118" s="156">
+      <c r="G118" s="62">
         <v>312</v>
       </c>
-      <c r="H118" s="156">
+      <c r="H118" s="62">
         <v>312</v>
       </c>
-      <c r="I118" s="156">
+      <c r="I118" s="62">
         <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="168" t="s">
+      <c r="A119" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B119" s="168" t="s">
+      <c r="B119" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="C119" s="160">
+      <c r="C119" s="66">
         <v>112</v>
       </c>
-      <c r="D119" s="160">
+      <c r="D119" s="66">
         <v>112</v>
       </c>
-      <c r="E119" s="160">
+      <c r="E119" s="66">
         <v>112</v>
       </c>
-      <c r="F119" s="160">
+      <c r="F119" s="66">
         <v>112</v>
       </c>
-      <c r="G119" s="160">
+      <c r="G119" s="66">
         <v>112</v>
       </c>
-      <c r="H119" s="160">
+      <c r="H119" s="66">
         <v>112</v>
       </c>
-      <c r="I119" s="160">
+      <c r="I119" s="66">
         <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="168" t="s">
+      <c r="A120" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B120" s="168" t="s">
+      <c r="B120" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="C120" s="160">
+      <c r="C120" s="66">
         <v>122</v>
       </c>
-      <c r="D120" s="160">
+      <c r="D120" s="66">
         <v>122</v>
       </c>
-      <c r="E120" s="160">
+      <c r="E120" s="66">
         <v>122</v>
       </c>
-      <c r="F120" s="160">
+      <c r="F120" s="66">
         <v>122</v>
       </c>
-      <c r="G120" s="160">
+      <c r="G120" s="66">
         <v>122</v>
       </c>
-      <c r="H120" s="160">
+      <c r="H120" s="66">
         <v>122</v>
       </c>
-      <c r="I120" s="160">
+      <c r="I120" s="66">
         <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="168" t="s">
+      <c r="A121" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B121" s="168" t="s">
+      <c r="B121" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="C121" s="160">
+      <c r="C121" s="66">
         <v>210</v>
       </c>
-      <c r="D121" s="160">
+      <c r="D121" s="66">
         <v>210</v>
       </c>
-      <c r="E121" s="160">
+      <c r="E121" s="66">
         <v>210</v>
       </c>
-      <c r="F121" s="160">
+      <c r="F121" s="66">
         <v>210</v>
       </c>
-      <c r="G121" s="160">
+      <c r="G121" s="66">
         <v>210</v>
       </c>
-      <c r="H121" s="160">
+      <c r="H121" s="66">
         <v>210</v>
       </c>
-      <c r="I121" s="160">
+      <c r="I121" s="66">
         <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="172" t="s">
+      <c r="A122" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="B122" s="170" t="s">
+      <c r="B122" s="76" t="s">
         <v>405</v>
       </c>
-      <c r="C122" s="169">
+      <c r="C122" s="75">
         <v>301</v>
       </c>
-      <c r="D122" s="169">
+      <c r="D122" s="75">
         <v>301</v>
       </c>
-      <c r="E122" s="169">
+      <c r="E122" s="75">
         <v>301</v>
       </c>
-      <c r="F122" s="169">
+      <c r="F122" s="75">
         <v>301</v>
       </c>
-      <c r="G122" s="169">
+      <c r="G122" s="75">
         <v>301</v>
       </c>
-      <c r="H122" s="169">
+      <c r="H122" s="75">
         <v>301</v>
       </c>
-      <c r="I122" s="169">
+      <c r="I122" s="75">
         <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="172" t="s">
+      <c r="A123" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="B123" s="169" t="s">
+      <c r="B123" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="C123" s="169">
+      <c r="C123" s="75">
         <v>306</v>
       </c>
-      <c r="D123" s="169">
+      <c r="D123" s="75">
         <v>306</v>
       </c>
-      <c r="E123" s="169">
+      <c r="E123" s="75">
         <v>306</v>
       </c>
-      <c r="F123" s="169">
+      <c r="F123" s="75">
         <v>306</v>
       </c>
-      <c r="G123" s="169">
+      <c r="G123" s="75">
         <v>306</v>
       </c>
-      <c r="H123" s="169">
+      <c r="H123" s="75">
         <v>306</v>
       </c>
-      <c r="I123" s="169">
+      <c r="I123" s="75">
         <v>306</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="172" t="s">
+      <c r="A124" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="B124" s="169" t="s">
+      <c r="B124" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="C124" s="169">
+      <c r="C124" s="75">
         <v>311</v>
       </c>
-      <c r="D124" s="169">
+      <c r="D124" s="75">
         <v>311</v>
       </c>
-      <c r="E124" s="169">
+      <c r="E124" s="75">
         <v>311</v>
       </c>
-      <c r="F124" s="169">
+      <c r="F124" s="75">
         <v>311</v>
       </c>
-      <c r="G124" s="169">
+      <c r="G124" s="75">
         <v>311</v>
       </c>
-      <c r="H124" s="169">
+      <c r="H124" s="75">
         <v>311</v>
       </c>
-      <c r="I124" s="169">
+      <c r="I124" s="75">
         <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="172" t="s">
+      <c r="A125" s="78" t="s">
         <v>410</v>
       </c>
-      <c r="B125" s="169" t="s">
+      <c r="B125" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="C125" s="169">
+      <c r="C125" s="75">
         <v>302</v>
       </c>
-      <c r="D125" s="169">
+      <c r="D125" s="75">
         <v>302</v>
       </c>
-      <c r="E125" s="169">
+      <c r="E125" s="75">
         <v>302</v>
       </c>
-      <c r="F125" s="169">
+      <c r="F125" s="75">
         <v>302</v>
       </c>
-      <c r="G125" s="169">
+      <c r="G125" s="75">
         <v>302</v>
       </c>
-      <c r="H125" s="169">
+      <c r="H125" s="75">
         <v>302</v>
       </c>
-      <c r="I125" s="169">
+      <c r="I125" s="75">
         <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="172" t="s">
+      <c r="A126" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="B126" s="170" t="s">
+      <c r="B126" s="76" t="s">
         <v>408</v>
       </c>
-      <c r="C126" s="171">
+      <c r="C126" s="77">
         <v>303</v>
       </c>
-      <c r="D126" s="171">
+      <c r="D126" s="77">
         <v>303</v>
       </c>
-      <c r="E126" s="171">
+      <c r="E126" s="77">
         <v>303</v>
       </c>
-      <c r="F126" s="171">
+      <c r="F126" s="77">
         <v>303</v>
       </c>
-      <c r="G126" s="171">
+      <c r="G126" s="77">
         <v>303</v>
       </c>
-      <c r="H126" s="171">
+      <c r="H126" s="77">
         <v>303</v>
       </c>
-      <c r="I126" s="171">
+      <c r="I126" s="77">
         <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="173" t="s">
+      <c r="A127" s="79" t="s">
         <v>396</v>
       </c>
-      <c r="B127" s="170" t="s">
+      <c r="B127" s="76" t="s">
         <v>409</v>
       </c>
-      <c r="C127" s="171">
+      <c r="C127" s="77">
         <v>310</v>
       </c>
-      <c r="D127" s="171">
+      <c r="D127" s="77">
         <v>310</v>
       </c>
-      <c r="E127" s="171">
+      <c r="E127" s="77">
         <v>310</v>
       </c>
-      <c r="F127" s="171">
+      <c r="F127" s="77">
         <v>310</v>
       </c>
-      <c r="G127" s="171">
+      <c r="G127" s="77">
         <v>310</v>
       </c>
-      <c r="H127" s="171">
+      <c r="H127" s="77">
         <v>310</v>
       </c>
-      <c r="I127" s="171">
+      <c r="I127" s="77">
         <v>310</v>
       </c>
     </row>
@@ -7267,21 +7292,30 @@
     <sortCondition ref="A1:A126"/>
   </sortState>
   <mergeCells count="66">
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:T16"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="U5:X5"/>
@@ -7298,41 +7332,32 @@
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="U12:X12"/>
     <mergeCell ref="U11:W11"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="N24:P24"/>
     <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:T16"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N9:O9"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y2:AB2"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.15" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" fitToWidth="7" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
